--- a/Spreadsheets/ElysiaDateSheet.xlsx
+++ b/Spreadsheets/ElysiaDateSheet.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
-  <workbookPr date1904="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnnytran/Desktop/Helios-Packet-Parser/Spreadsheets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E24F74-66F1-EC48-95E9-49F183C54580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="18540" windowHeight="8020"/>
+    <workbookView xWindow="-720" yWindow="740" windowWidth="29400" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Serial Telemetry" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="0">"Serial Telemetry"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
   </definedNames>
-  <calcPr calcMode="auto" iterate="1" iterateCount="100" iterateDelta="0.001"/>
-  <webPublishing allowPng="1" css="0" codePage="1252"/>
+  <calcPr calcId="0" iterate="1"/>
+  <webPublishing css="0" allowPng="1" codePage="1252"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="160">
   <si>
     <t>Package ID</t>
   </si>
@@ -75,7 +81,7 @@
     <t>#</t>
   </si>
   <si>
-    <t>uchar </t>
+    <t>uchar</t>
   </si>
   <si>
     <t>Boolean</t>
@@ -91,62 +97,454 @@
   </si>
   <si>
     <t>10 mV</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>KeyMotor</t>
+  </si>
+  <si>
+    <t>ID:1,Quantity:1</t>
+  </si>
+  <si>
+    <t>M0 Alive</t>
+  </si>
+  <si>
+    <t>M0 Set Current</t>
+  </si>
+  <si>
+    <t>M0 Set Velocity</t>
+  </si>
+  <si>
+    <t>M0 Bus Current</t>
+  </si>
+  <si>
+    <t>M0 Bus Voltage</t>
+  </si>
+  <si>
+    <t>M0 Vehicle Velocity</t>
+  </si>
+  <si>
+    <t>M1 Alive</t>
+  </si>
+  <si>
+    <t>M1 Set Current</t>
+  </si>
+  <si>
+    <t>M1 Set Velocity</t>
+  </si>
+  <si>
+    <t>M1 Bus Current</t>
+  </si>
+  <si>
+    <t>M1 Bus Voltage</t>
+  </si>
+  <si>
+    <t>M1 Vehicle Velocity</t>
+  </si>
+  <si>
+    <t>MotorDetails</t>
+  </si>
+  <si>
+    <t>ID:2,Quantity:2</t>
+  </si>
+  <si>
+    <t>Phase C Current</t>
+  </si>
+  <si>
+    <t>Phase B Current</t>
+  </si>
+  <si>
+    <t>Motor Voltage Real</t>
+  </si>
+  <si>
+    <t>Motor Voltage Imaginary</t>
+  </si>
+  <si>
+    <t>Motor Current Real</t>
+  </si>
+  <si>
+    <t>Motor Current Imaginary</t>
+  </si>
+  <si>
+    <t>Back EMF</t>
+  </si>
+  <si>
+    <t>15V Voltage Rail Supply</t>
+  </si>
+  <si>
+    <t>3.3V Voltage Rail Supply</t>
+  </si>
+  <si>
+    <t>1.9V Voltage Rail Supply</t>
+  </si>
+  <si>
+    <t>Heat-sink Temperature</t>
+  </si>
+  <si>
+    <t>Motor Temperature</t>
+  </si>
+  <si>
+    <t>DSP Board Temp</t>
+  </si>
+  <si>
+    <t>DC Bus AmpHours</t>
+  </si>
+  <si>
+    <t>Ah</t>
+  </si>
+  <si>
+    <t>Odometer</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Slip Speed</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>DriverControls</t>
+  </si>
+  <si>
+    <t>ID:4,Quantity:1</t>
+  </si>
+  <si>
+    <t>Driver Controls Board Alive</t>
+  </si>
+  <si>
+    <t>Lights Inputs</t>
+  </si>
+  <si>
+    <t>0x01:HeadlightsOff,0x02:HeadlightsLow,0x04:HeadlightsHigh,0x08:SignalRight,0x10:SignalLeft,0x20:Hazard,0x40:Interior</t>
+  </si>
+  <si>
+    <t>Music Inputs</t>
+  </si>
+  <si>
+    <t>0x01:VolumeUp,0x02:VolumeDown,0x04:NextSong,0x08:PrevSong</t>
+  </si>
+  <si>
+    <t>Acceleration</t>
+  </si>
+  <si>
+    <t>Regen Braking</t>
+  </si>
+  <si>
+    <t>Driver Inputs</t>
+  </si>
+  <si>
+    <t>0x01:Brakes,0x02:Forward,0x04:Reverse,0x08:PushToTalk,0x10:Horn,0x20:Reset,0x40:Aux,0x80:Lap</t>
+  </si>
+  <si>
+    <t>MotorFaults</t>
+  </si>
+  <si>
+    <t>ID:5,Quantity:1</t>
+  </si>
+  <si>
+    <t>M0 Error Flags</t>
+  </si>
+  <si>
+    <t>M1 Error Flags</t>
+  </si>
+  <si>
+    <t>M0 Limit Flags</t>
+  </si>
+  <si>
+    <t>M1 Limit Flags</t>
+  </si>
+  <si>
+    <t>M0 CAN RX Error Count</t>
+  </si>
+  <si>
+    <t>M0 CAN TX Error Count</t>
+  </si>
+  <si>
+    <t>M1 CAN RX Error Count</t>
+  </si>
+  <si>
+    <t>M1CanTxErrorCount</t>
+  </si>
+  <si>
+    <t>BatteryFaults</t>
+  </si>
+  <si>
+    <t>PackageID</t>
+  </si>
+  <si>
+    <t>ID:6,Quantity:1</t>
+  </si>
+  <si>
+    <t>ErrorFlags</t>
+  </si>
+  <si>
+    <t>uint</t>
+  </si>
+  <si>
+    <t>0x00000001:InternalCommununicationFault,0x00000002:InternalConversionFault,0x00000004:WeakCellFault,0x00000008:LowCellVoltageFault,0x00000010:OpenWiringFault,0x00000020:CurrentSensorFault,0x00000040:PackVoltageSensorFault,0x00000080:WeakPackFault,0x00000100:VoltageRedundancyFault,0x00000200:FanMonitorFault,0x00000400:ThermistorFault,0x00000800:CanbusCommunicationsFault,0x00001000:AlwaysOnSupplyFault,0x00002000:HighVoltageIsolationFault,0x00004000:PowerSupply12VFault,0x00008000:ChargeLimitEnforcementFault,0x00010000:DischargeLimitEnforcementFault,0x00020000:ChargerSafetyRelayFault,0x00040000:InternalMemoryFault,0x00080000:InternalThermistorFault,0x00100000:InternalLogicFault</t>
+  </si>
+  <si>
+    <t>LimitFlags</t>
+  </si>
+  <si>
+    <t>0x0001:DCLReducedDueToLowSOC,0x0002:DCLReducedDueToHighCellResistance,0x0004:DCLReducedDueToTemperature,0x0008:DCLReducedDueToLowCellVoltage,0x0010:DCLReducedDueToLowPackVoltage,0x0040:DCLAndCCLReducedDueToVoltageFailsafe,0x0080:DCLAndCCLReducedDueToCommunicationFailsafe,0x0200:CCLReducedDueToHighSOC,0x0400:CCLReducedDueToHighCellResistance,0x0800:CCLReducedDueToTemperature,0x1000:CCLReducedDueToHighCellVoltage,0x2000:CCLReducedDueToHighPackVoltage,0x4000:CCLReducedDueToChargerLatch,0x8000:CCLReducedDueToAlternateCurrentLimit</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>ID:7,Quantity:1</t>
+  </si>
+  <si>
+    <t>BMU Alive</t>
+  </si>
+  <si>
+    <t>BMS Relay Status</t>
+  </si>
+  <si>
+    <t>0x01:DischargeRelayEnabled,0x02:ChargeRelayEnabled,0x04:ChargerSafetyEnabled,0x08:MalfunctionIndicatorActive,0x10:MultiPurposeInputSignalStatus,0x20:AlwaysOnSignalStatus,0x40:IsReadySignalStatus,0x80:IsChargingSignalStatus</t>
+  </si>
+  <si>
+    <t>Populated Cells</t>
+  </si>
+  <si>
+    <t>12v Input Voltage</t>
+  </si>
+  <si>
+    <t>Fan Voltage</t>
+  </si>
+  <si>
+    <t>0.01 V</t>
+  </si>
+  <si>
+    <t>Pack Current</t>
+  </si>
+  <si>
+    <t>0.1 A</t>
+  </si>
+  <si>
+    <t>Pack Voltage</t>
+  </si>
+  <si>
+    <t>Pack State of Charge</t>
+  </si>
+  <si>
+    <t>Pack Amphours</t>
+  </si>
+  <si>
+    <t>0.1 Ah</t>
+  </si>
+  <si>
+    <t>Pack Depth of Discharge (DOD)</t>
+  </si>
+  <si>
+    <t>High Temperature</t>
+  </si>
+  <si>
+    <t>High Thermistor ID</t>
+  </si>
+  <si>
+    <t>Low Temperature</t>
+  </si>
+  <si>
+    <t>Low Thermistor ID</t>
+  </si>
+  <si>
+    <t>Average Temperature</t>
+  </si>
+  <si>
+    <t>Internal Temperature</t>
+  </si>
+  <si>
+    <t>Fan Speed</t>
+  </si>
+  <si>
+    <t>Requested Fan Speed</t>
+  </si>
+  <si>
+    <t>Low Cell Voltage</t>
+  </si>
+  <si>
+    <t>Low Cell Voltage ID</t>
+  </si>
+  <si>
+    <t>High Cell Voltage</t>
+  </si>
+  <si>
+    <t>High Cell Voltage ID</t>
+  </si>
+  <si>
+    <t>Average Cell Voltage</t>
+  </si>
+  <si>
+    <t>Mppt</t>
+  </si>
+  <si>
+    <t>ID:9,Quantity:4,UniqueId:True</t>
+  </si>
+  <si>
+    <t>MPPT Status</t>
+  </si>
+  <si>
+    <t>Array Voltage</t>
+  </si>
+  <si>
+    <t>Array Current</t>
+  </si>
+  <si>
+    <t>mA</t>
+  </si>
+  <si>
+    <t>Battery Voltage</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>1/100th °C</t>
+  </si>
+  <si>
+    <t>Lights</t>
+  </si>
+  <si>
+    <t>ID:10,Quantity:1</t>
+  </si>
+  <si>
+    <t>Lights Alive</t>
+  </si>
+  <si>
+    <t>Lights Status</t>
+  </si>
+  <si>
+    <t>0x01:LowBeams,0x02:HighBeams,0x04:BrakeLights,0x08:LeftSignal,0x10:RightSignal,0x20:BmsStrobeLight</t>
+  </si>
+  <si>
+    <t>AuxBms</t>
+  </si>
+  <si>
+    <t>ID:11,Quantity:1</t>
+  </si>
+  <si>
+    <t>Precharge State</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>Aux Voltage</t>
+  </si>
+  <si>
+    <t>mV</t>
+  </si>
+  <si>
+    <t>Allow Charge</t>
+  </si>
+  <si>
+    <t>High Voltage Enable State</t>
+  </si>
+  <si>
+    <t>Allow Discharge</t>
+  </si>
+  <si>
+    <t>Aux Contactor Debug Info</t>
+  </si>
+  <si>
+    <t>0x01:ChargeContactorError,0x02:DischargeContactorError,0x04:CommonContactorError,0x08:DischargeShouldTrip,0x10:ChargeShouldTrip,0x20:ChargeOpenButShouldBeClosed,0x40:DischargeOpenButShouldBeClosed</t>
+  </si>
+  <si>
+    <t>Aux Trip</t>
+  </si>
+  <si>
+    <t>0x0001:ChargeTripDueToHighCellVoltage,0x0002:ChargeTripDueToHighTemperatureAndCurrent,0x0004:ChargeTripDueToPackCurrent,0x0008:DischargeTripDueToLowCellVoltage,0x0010:DischargeTripDueToHighTemperatureAndCurrent,0x0020:DischargeTripDueToPackCurrent,0x0040:ProtectionTrip,0x0080:TripDueToOrionMessageTimeout,0x0100:ChargeNotClosedDueToHighCurrent,0x0200:DischargeNotClosedDueToHighCurrent,0x0400:TripDueToContactorDisconnectedUnexpectedly</t>
+  </si>
+  <si>
+    <t>Unit 0 Channel 0  -&gt; Channel Number 0
+Unit 0 Channel 1  -&gt; Channel Number 1
+Unit 1 Channel 0  -&gt; Channel Number 2
+Unit 1 Channel 1  -&gt; Channel Number 3</t>
+  </si>
+  <si>
+    <t>070a01027c8f00</t>
+  </si>
+  <si>
+    <t>Note: Precharge state corresponds to the states of the contactors (See CAN Protocol)</t>
+  </si>
+  <si>
+    <t>Byte 0</t>
+  </si>
+  <si>
+    <t>Assign masks by pretending it's continuous and not separated by arrays where you start at 1 again for the next byte</t>
+  </si>
+  <si>
+    <t>Byte 1</t>
+  </si>
+  <si>
+    <t>Should not be 0x01!</t>
+  </si>
+  <si>
+    <t>Orion Can Received Recently</t>
+  </si>
+  <si>
+    <t>Aux Bms Alive</t>
+  </si>
+  <si>
+    <t>Strobe Bms Light</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <u val="none"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Sans"/>
-      <vertAlign val="baseline"/>
-      <sz val="10"/>
-      <strike val="0"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <u val="none"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <vertAlign val="baseline"/>
-      <sz val="10"/>
-      <strike val="0"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <u val="none"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <vertAlign val="baseline"/>
-      <sz val="10"/>
-      <strike val="0"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <u val="none"/>
+      <b/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <vertAlign val="baseline"/>
-      <sz val="10"/>
-      <strike val="0"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <u val="none"/>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <vertAlign val="baseline"/>
-      <sz val="10"/>
-      <strike val="0"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="37">
@@ -368,77 +766,54 @@
     </fill>
   </fills>
   <borders count="11">
-    <border diagonalUp="0" diagonalDown="0">
-      <left style="none">
-        <color rgb="FFC7C7C7"/>
-      </left>
-      <right style="none">
-        <color rgb="FFC7C7C7"/>
-      </right>
-      <top style="none">
-        <color rgb="FFC7C7C7"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FFC7C7C7"/>
-      </bottom>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border diagonalUp="0" diagonalDown="0">
-      <left style="none">
-        <color rgb="FFC7C7C7"/>
-      </left>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
-      <top style="none">
-        <color rgb="FFC7C7C7"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FFC7C7C7"/>
-      </bottom>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border diagonalUp="0" diagonalDown="0">
+    <border>
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
-      <top style="none">
-        <color rgb="FFC7C7C7"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FFC7C7C7"/>
-      </bottom>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border diagonalUp="0" diagonalDown="0">
+    <border>
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
-      <right style="none">
-        <color rgb="FFC7C7C7"/>
-      </right>
-      <top style="none">
-        <color rgb="FFC7C7C7"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FFC7C7C7"/>
-      </bottom>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border diagonalUp="0" diagonalDown="0">
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="none">
-        <color rgb="FFC7C7C7"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="none">
-        <color rgb="FFC7C7C7"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border diagonalUp="0" diagonalDown="0">
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -448,25 +823,23 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="none">
-        <color rgb="FFC7C7C7"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border diagonalUp="0" diagonalDown="0">
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="none">
-        <color rgb="FFC7C7C7"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
-    <border diagonalUp="0" diagonalDown="0">
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -479,36 +852,33 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
-    <border diagonalUp="0" diagonalDown="0">
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="none">
-        <color rgb="FFC7C7C7"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FFC7C7C7"/>
-      </bottom>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border diagonalUp="0" diagonalDown="0">
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="none">
-        <color rgb="FFC7C7C7"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
-    <border diagonalUp="0" diagonalDown="0">
+    <border>
       <left style="thin">
         <color rgb="FF45818E"/>
       </left>
@@ -521,354 +891,587 @@
       <bottom style="thin">
         <color rgb="FF45818E"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="68">
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="2" fillId="2" borderId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="2" fillId="2" borderId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="3" fillId="3" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="4" fillId="3" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="3" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="4" borderId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="5" borderId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="5" borderId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="4" fillId="6" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="7" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="8" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="9" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="10" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="11" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="12" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="13" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="14" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="15" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="top" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="16" borderId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="17" borderId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="17" borderId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="18" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="3" fillId="3" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="19" borderId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="20" borderId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="20" borderId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="21" borderId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="21" borderId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="49" fontId="1" fillId="21" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="21" borderId="5" numFmtId="49" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="7" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="22" borderId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="23" borderId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="23" borderId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="24" borderId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="25" borderId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="26" borderId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="27" borderId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="27" borderId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="28" borderId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="29" borderId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="30" borderId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="30" borderId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="31" borderId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="32" borderId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="32" borderId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="33" borderId="7" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="34" borderId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="34" borderId="8" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="34" borderId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="34" borderId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="34" borderId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="34" borderId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="35" borderId="5" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="34" borderId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="34" borderId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="35" borderId="7" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="36" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-      <protection locked="1" hidden="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0" tabSelected="1">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.33203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" style="1" width="16.141887019230772" customWidth="1"/>
-    <col min="2" max="2" style="1" width="17.88" customWidth="1"/>
-    <col min="3" max="3" style="1" width="7.63" customWidth="1"/>
-    <col min="4" max="4" style="1" width="8.75" customWidth="1"/>
-    <col min="5" max="5" style="1" width="9.570853365384616" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" style="1" width="45.71153846153847" customWidth="1"/>
-    <col min="7" max="7" style="1" width="37.569170673076925" customWidth="1"/>
-    <col min="8" max="8" style="1" width="27.129999999999995" customWidth="1"/>
-    <col min="9" max="9" style="1" width="12.13" customWidth="1"/>
-    <col min="10" max="10" style="1" width="11.75" customWidth="1"/>
-    <col min="11" max="11" style="1" width="32.88" customWidth="1"/>
-    <col min="12" max="12" style="1" width="2.4055697115384618"/>
-    <col min="13" max="13" style="1" width="10.75" customWidth="1"/>
-    <col min="14" max="15" style="1" width="14.5" customWidth="1"/>
-    <col min="16" max="16" style="1" width="8.63" customWidth="1"/>
-    <col min="17" max="17" style="1" width="9.88" customWidth="1"/>
-    <col min="18" max="18" style="1" width="10.38" customWidth="1"/>
-    <col min="19" max="16384" style="1" width="2.4055697115384618"/>
+    <col min="1" max="1" width="16.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="2.33203125" style="1"/>
+    <col min="13" max="13" width="10.83203125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="14.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.83203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="2.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Section</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Offset</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
-      <c r="F1" s="4" t="inlineStr">
-        <is>
-          <t>Details</t>
-        </is>
+    <row r="1" spans="1:25" ht="14">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="6"/>
@@ -888,11 +1491,9 @@
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
     </row>
-    <row r="2" spans="1:16384">
-      <c r="A2" s="9" t="inlineStr">
-        <is>
-          <t>KeyMotor</t>
-        </is>
+    <row r="2" spans="1:25" ht="14">
+      <c r="A2" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>0</v>
@@ -904,10 +1505,8 @@
         <v>1</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="11" t="inlineStr">
-        <is>
-          <t>ID:1,Quantity:1</t>
-        </is>
+      <c r="F2" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="12"/>
@@ -927,12 +1526,10 @@
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
     </row>
-    <row r="3" spans="1:16384">
+    <row r="3" spans="1:25" ht="14">
       <c r="A3" s="9"/>
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>M0 Alive</t>
-        </is>
+      <c r="B3" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
@@ -964,12 +1561,10 @@
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
     </row>
-    <row r="4" spans="1:16384">
+    <row r="4" spans="1:25" ht="14">
       <c r="A4" s="9"/>
-      <c r="B4" s="10" t="inlineStr">
-        <is>
-          <t>M0 Set Current </t>
-        </is>
+      <c r="B4" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="C4" s="10">
         <v>2</v>
@@ -1001,12 +1596,10 @@
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
     </row>
-    <row r="5" spans="1:16384">
+    <row r="5" spans="1:25" ht="14">
       <c r="A5" s="9"/>
-      <c r="B5" s="10" t="inlineStr">
-        <is>
-          <t>M0 Set Velocity</t>
-        </is>
+      <c r="B5" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="C5" s="10">
         <v>6</v>
@@ -1035,12 +1628,10 @@
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
     </row>
-    <row r="6" spans="1:16384">
+    <row r="6" spans="1:25" ht="14">
       <c r="A6" s="9"/>
-      <c r="B6" s="10" t="inlineStr">
-        <is>
-          <t>M0 Bus Current</t>
-        </is>
+      <c r="B6" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="C6" s="10">
         <v>10</v>
@@ -1070,12 +1661,10 @@
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
     </row>
-    <row r="7" spans="1:16384">
+    <row r="7" spans="1:25" ht="14">
       <c r="A7" s="9"/>
-      <c r="B7" s="10" t="inlineStr">
-        <is>
-          <t>M0 Bus Voltage</t>
-        </is>
+      <c r="B7" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="C7" s="10">
         <v>14</v>
@@ -1102,12 +1691,10 @@
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
     </row>
-    <row r="8" spans="1:16384">
+    <row r="8" spans="1:25" ht="14">
       <c r="A8" s="9"/>
-      <c r="B8" s="10" t="inlineStr">
-        <is>
-          <t>M0 Vehicle Velocity</t>
-        </is>
+      <c r="B8" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="C8" s="10">
         <v>18</v>
@@ -1137,12 +1724,10 @@
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
     </row>
-    <row r="9" spans="1:16384">
+    <row r="9" spans="1:25" ht="14">
       <c r="A9" s="9"/>
-      <c r="B9" s="10" t="inlineStr">
-        <is>
-          <t>M1 Alive</t>
-        </is>
+      <c r="B9" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C9" s="10">
         <v>22</v>
@@ -1172,12 +1757,10 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
     </row>
-    <row r="10" spans="1:16384">
+    <row r="10" spans="1:25" ht="14">
       <c r="A10" s="9"/>
-      <c r="B10" s="10" t="inlineStr">
-        <is>
-          <t>M1 Set Current</t>
-        </is>
+      <c r="B10" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="C10" s="10">
         <v>23</v>
@@ -1207,12 +1790,10 @@
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
     </row>
-    <row r="11" spans="1:16384">
+    <row r="11" spans="1:25" ht="14">
       <c r="A11" s="9"/>
-      <c r="B11" s="10" t="inlineStr">
-        <is>
-          <t>M1 Set Velocity</t>
-        </is>
+      <c r="B11" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="C11" s="10">
         <v>27</v>
@@ -1238,12 +1819,10 @@
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
     </row>
-    <row r="12" spans="1:16384">
+    <row r="12" spans="1:25" ht="14">
       <c r="A12" s="9"/>
-      <c r="B12" s="10" t="inlineStr">
-        <is>
-          <t>M1 Bus Current</t>
-        </is>
+      <c r="B12" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="C12" s="10">
         <v>31</v>
@@ -1267,12 +1846,10 @@
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
     </row>
-    <row r="13" spans="1:16384">
+    <row r="13" spans="1:25" ht="14">
       <c r="A13" s="9"/>
-      <c r="B13" s="10" t="inlineStr">
-        <is>
-          <t>M1 Bus Voltage</t>
-        </is>
+      <c r="B13" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="C13" s="10">
         <v>35</v>
@@ -1300,12 +1877,10 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
     </row>
-    <row r="14" spans="1:16384">
+    <row r="14" spans="1:25" ht="14">
       <c r="A14" s="9"/>
-      <c r="B14" s="10" t="inlineStr">
-        <is>
-          <t>M1 Vehicle Velocity</t>
-        </is>
+      <c r="B14" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="C14" s="10">
         <v>39</v>
@@ -1334,11 +1909,9 @@
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
     </row>
-    <row r="15" spans="1:16384">
-      <c r="A15" s="24" t="inlineStr">
-        <is>
-          <t>MotorDetails</t>
-        </is>
+    <row r="15" spans="1:25" ht="14">
+      <c r="A15" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>0</v>
@@ -1350,10 +1923,8 @@
         <v>1</v>
       </c>
       <c r="E15" s="25"/>
-      <c r="F15" s="26" t="inlineStr">
-        <is>
-          <t>ID:2,Quantity:2</t>
-        </is>
+      <c r="F15" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="14"/>
@@ -1372,12 +1943,10 @@
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
     </row>
-    <row r="16" spans="1:16384">
+    <row r="16" spans="1:25" ht="14">
       <c r="A16" s="24"/>
-      <c r="B16" s="25" t="inlineStr">
-        <is>
-          <t>Phase C Current</t>
-        </is>
+      <c r="B16" s="25" t="s">
+        <v>46</v>
       </c>
       <c r="C16" s="25">
         <v>1</v>
@@ -1408,12 +1977,10 @@
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
     </row>
-    <row r="17" spans="1:16384">
+    <row r="17" spans="1:25" ht="14">
       <c r="A17" s="24"/>
-      <c r="B17" s="25" t="inlineStr">
-        <is>
-          <t>Phase B Current</t>
-        </is>
+      <c r="B17" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="C17" s="25">
         <v>5</v>
@@ -1444,12 +2011,10 @@
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
     </row>
-    <row r="18" spans="1:16384">
+    <row r="18" spans="1:25" ht="14">
       <c r="A18" s="24"/>
-      <c r="B18" s="25" t="inlineStr">
-        <is>
-          <t>Motor Voltage Real</t>
-        </is>
+      <c r="B18" s="25" t="s">
+        <v>48</v>
       </c>
       <c r="C18" s="25">
         <v>9</v>
@@ -1480,12 +2045,10 @@
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
     </row>
-    <row r="19" spans="1:16384" ht="24.75">
+    <row r="19" spans="1:25" ht="28">
       <c r="A19" s="24"/>
-      <c r="B19" s="25" t="inlineStr">
-        <is>
-          <t>Motor Voltage Imaginary</t>
-        </is>
+      <c r="B19" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="C19" s="25">
         <v>13</v>
@@ -1516,12 +2079,10 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
     </row>
-    <row r="20" spans="1:16384">
+    <row r="20" spans="1:25" ht="14">
       <c r="A20" s="24"/>
-      <c r="B20" s="25" t="inlineStr">
-        <is>
-          <t>Motor Current Real</t>
-        </is>
+      <c r="B20" s="25" t="s">
+        <v>50</v>
       </c>
       <c r="C20" s="25">
         <v>17</v>
@@ -1552,12 +2113,10 @@
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
     </row>
-    <row r="21" spans="1:16384" ht="24.75">
+    <row r="21" spans="1:25" ht="28">
       <c r="A21" s="24"/>
-      <c r="B21" s="25" t="inlineStr">
-        <is>
-          <t>Motor Current Imaginary</t>
-        </is>
+      <c r="B21" s="25" t="s">
+        <v>51</v>
       </c>
       <c r="C21" s="25">
         <v>21</v>
@@ -1588,12 +2147,10 @@
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
     </row>
-    <row r="22" spans="1:16384">
+    <row r="22" spans="1:25" ht="14">
       <c r="A22" s="24"/>
-      <c r="B22" s="25" t="inlineStr">
-        <is>
-          <t>Back EMF</t>
-        </is>
+      <c r="B22" s="25" t="s">
+        <v>52</v>
       </c>
       <c r="C22" s="25">
         <v>25</v>
@@ -1623,12 +2180,10 @@
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
     </row>
-    <row r="23" spans="1:16384" ht="24.75">
+    <row r="23" spans="1:25" ht="28">
       <c r="A23" s="24"/>
-      <c r="B23" s="25" t="inlineStr">
-        <is>
-          <t>15V Voltage Rail Supply</t>
-        </is>
+      <c r="B23" s="25" t="s">
+        <v>53</v>
       </c>
       <c r="C23" s="25">
         <v>29</v>
@@ -1658,12 +2213,10 @@
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
     </row>
-    <row r="24" spans="1:16384" ht="24.75">
+    <row r="24" spans="1:25" ht="28">
       <c r="A24" s="24"/>
-      <c r="B24" s="25" t="inlineStr">
-        <is>
-          <t>3.3V Voltage Rail Supply</t>
-        </is>
+      <c r="B24" s="25" t="s">
+        <v>54</v>
       </c>
       <c r="C24" s="25">
         <v>33</v>
@@ -1694,12 +2247,10 @@
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
     </row>
-    <row r="25" spans="1:16384" ht="24.75">
+    <row r="25" spans="1:25" ht="28">
       <c r="A25" s="24"/>
-      <c r="B25" s="25" t="inlineStr">
-        <is>
-          <t>1.9V Voltage Rail Supply</t>
-        </is>
+      <c r="B25" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="C25" s="25">
         <v>37</v>
@@ -1729,12 +2280,10 @@
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
     </row>
-    <row r="26" spans="1:16384" ht="24.75">
+    <row r="26" spans="1:25" ht="28">
       <c r="A26" s="24"/>
-      <c r="B26" s="25" t="inlineStr">
-        <is>
-          <t>Heat-sink Temperature</t>
-        </is>
+      <c r="B26" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="C26" s="25">
         <v>41</v>
@@ -1761,12 +2310,10 @@
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
     </row>
-    <row r="27" spans="1:16384">
+    <row r="27" spans="1:25" ht="14">
       <c r="A27" s="24"/>
-      <c r="B27" s="25" t="inlineStr">
-        <is>
-          <t>Motor Temperature</t>
-        </is>
+      <c r="B27" s="25" t="s">
+        <v>57</v>
       </c>
       <c r="C27" s="25">
         <v>45</v>
@@ -1791,12 +2338,10 @@
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
     </row>
-    <row r="28" spans="1:16384">
+    <row r="28" spans="1:25" ht="14">
       <c r="A28" s="24"/>
-      <c r="B28" s="25" t="inlineStr">
-        <is>
-          <t>DSP Board Temp</t>
-        </is>
+      <c r="B28" s="25" t="s">
+        <v>58</v>
       </c>
       <c r="C28" s="25">
         <v>49</v>
@@ -1823,12 +2368,10 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
     </row>
-    <row r="29" spans="1:16384">
+    <row r="29" spans="1:25" ht="14">
       <c r="A29" s="24"/>
-      <c r="B29" s="25" t="inlineStr">
-        <is>
-          <t>DC Bus AmpHours</t>
-        </is>
+      <c r="B29" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="C29" s="25">
         <v>53</v>
@@ -1836,10 +2379,8 @@
       <c r="D29" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="25" t="inlineStr">
-        <is>
-          <t>Ah</t>
-        </is>
+      <c r="E29" s="25" t="s">
+        <v>60</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="5"/>
@@ -1854,12 +2395,10 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
     </row>
-    <row r="30" spans="1:16384">
+    <row r="30" spans="1:25" ht="14">
       <c r="A30" s="24"/>
-      <c r="B30" s="25" t="inlineStr">
-        <is>
-          <t>Odometer</t>
-        </is>
+      <c r="B30" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="C30" s="25">
         <v>57</v>
@@ -1867,10 +2406,8 @@
       <c r="D30" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="25" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
+      <c r="E30" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="5"/>
@@ -1885,12 +2422,10 @@
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
     </row>
-    <row r="31" spans="1:16384">
+    <row r="31" spans="1:25" ht="14">
       <c r="A31" s="24"/>
-      <c r="B31" s="25" t="inlineStr">
-        <is>
-          <t>Slip Speed</t>
-        </is>
+      <c r="B31" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="C31" s="25">
         <v>61</v>
@@ -1898,10 +2433,8 @@
       <c r="D31" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="25" t="inlineStr">
-        <is>
-          <t>Hz</t>
-        </is>
+      <c r="E31" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="5"/>
@@ -1916,11 +2449,9 @@
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
     </row>
-    <row r="32" spans="1:16384">
-      <c r="A32" s="30" t="inlineStr">
-        <is>
-          <t>DriverControls</t>
-        </is>
+    <row r="32" spans="1:25" ht="14">
+      <c r="A32" s="30" t="s">
+        <v>65</v>
       </c>
       <c r="B32" s="31" t="s">
         <v>0</v>
@@ -1932,10 +2463,8 @@
         <v>1</v>
       </c>
       <c r="E32" s="31"/>
-      <c r="F32" s="32" t="inlineStr">
-        <is>
-          <t>ID:4,Quantity:1</t>
-        </is>
+      <c r="F32" s="32" t="s">
+        <v>66</v>
       </c>
       <c r="G32" s="5"/>
       <c r="Q32" s="5"/>
@@ -1948,12 +2477,10 @@
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
     </row>
-    <row r="33" spans="1:16384" ht="24.75">
+    <row r="33" spans="1:25 16379:16384" ht="28">
       <c r="A33" s="30"/>
-      <c r="B33" s="31" t="inlineStr">
-        <is>
-          <t>Driver Controls Board Alive</t>
-        </is>
+      <c r="B33" s="31" t="s">
+        <v>67</v>
       </c>
       <c r="C33" s="31">
         <v>1</v>
@@ -1977,12 +2504,10 @@
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
     </row>
-    <row r="34" spans="1:16384" ht="72.75">
+    <row r="34" spans="1:25 16379:16384" ht="42">
       <c r="A34" s="30"/>
-      <c r="B34" s="31" t="inlineStr">
-        <is>
-          <t>Lights Inputs</t>
-        </is>
+      <c r="B34" s="31" t="s">
+        <v>68</v>
       </c>
       <c r="C34" s="31">
         <v>2</v>
@@ -1993,10 +2518,8 @@
       <c r="E34" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="33" t="inlineStr">
-        <is>
-          <t>0x01:HeadlightsOff,0x02:HeadlightsLow,0x04:HeadlightsHigh,0x08:SignalRight,0x10:SignalLeft,0x20:Hazard,0x40:Interior</t>
-        </is>
+      <c r="F34" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -2010,12 +2533,10 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
     </row>
-    <row r="35" spans="1:16384" ht="36.75">
+    <row r="35" spans="1:25 16379:16384" ht="28">
       <c r="A35" s="30"/>
-      <c r="B35" s="31" t="inlineStr">
-        <is>
-          <t>Music Inputs</t>
-        </is>
+      <c r="B35" s="31" t="s">
+        <v>70</v>
       </c>
       <c r="C35" s="31">
         <v>3</v>
@@ -2026,10 +2547,8 @@
       <c r="E35" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="34" t="inlineStr">
-        <is>
-          <t>0x01:VolumeUp,0x02:VolumeDown,0x04:NextSong,0x08:PrevSong</t>
-        </is>
+      <c r="F35" s="34" t="s">
+        <v>71</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -2043,12 +2562,10 @@
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
     </row>
-    <row r="36" spans="1:16384" ht="36.75">
+    <row r="36" spans="1:25 16379:16384" ht="14">
       <c r="A36" s="30"/>
-      <c r="B36" s="31" t="inlineStr">
-        <is>
-          <t>Acceleration</t>
-        </is>
+      <c r="B36" s="31" t="s">
+        <v>72</v>
       </c>
       <c r="C36" s="31">
         <v>4</v>
@@ -2070,12 +2587,10 @@
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
     </row>
-    <row r="37" spans="1:16384" ht="36.75">
+    <row r="37" spans="1:25 16379:16384" ht="14">
       <c r="A37" s="30"/>
-      <c r="B37" s="31" t="inlineStr">
-        <is>
-          <t>Regen Braking</t>
-        </is>
+      <c r="B37" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="C37" s="31">
         <v>6</v>
@@ -2097,12 +2612,10 @@
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
     </row>
-    <row r="38" spans="1:16384" ht="48.75">
+    <row r="38" spans="1:25 16379:16384" ht="28">
       <c r="A38" s="30"/>
-      <c r="B38" s="31" t="inlineStr">
-        <is>
-          <t>Driver Inputs</t>
-        </is>
+      <c r="B38" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="C38" s="31">
         <v>8</v>
@@ -2113,10 +2626,8 @@
       <c r="E38" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="37" t="inlineStr">
-        <is>
-          <t>0x01:Brakes,0x02:Forward,0x04:Reverse,0x08:PushToTalk,0x10:Horn,0x20:Reset,0x40:Aux,0x80:Lap</t>
-        </is>
+      <c r="F38" s="37" t="s">
+        <v>75</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="38"/>
@@ -2128,11 +2639,9 @@
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
     </row>
-    <row r="39" spans="1:16384">
-      <c r="A39" s="39" t="inlineStr">
-        <is>
-          <t>MotorFaults</t>
-        </is>
+    <row r="39" spans="1:25 16379:16384" ht="14">
+      <c r="A39" s="39" t="s">
+        <v>76</v>
       </c>
       <c r="B39" s="40" t="s">
         <v>0</v>
@@ -2144,10 +2653,8 @@
         <v>1</v>
       </c>
       <c r="E39" s="40"/>
-      <c r="F39" s="41" t="inlineStr">
-        <is>
-          <t>ID:5,Quantity:1</t>
-        </is>
+      <c r="F39" s="41" t="s">
+        <v>77</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="38"/>
@@ -2157,12 +2664,10 @@
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
     </row>
-    <row r="40" spans="1:16384" ht="108.75">
+    <row r="40" spans="1:25 16379:16384" ht="70">
       <c r="A40" s="39"/>
-      <c r="B40" s="40" t="inlineStr">
-        <is>
-          <t>M0 Error Flags</t>
-        </is>
+      <c r="B40" s="40" t="s">
+        <v>78</v>
       </c>
       <c r="C40" s="40">
         <v>1</v>
@@ -2184,12 +2689,10 @@
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
     </row>
-    <row r="41" spans="1:16384" ht="108.75">
+    <row r="41" spans="1:25 16379:16384" ht="70">
       <c r="A41" s="39"/>
-      <c r="B41" s="40" t="inlineStr">
-        <is>
-          <t>M1 Error Flags</t>
-        </is>
+      <c r="B41" s="40" t="s">
+        <v>79</v>
       </c>
       <c r="C41" s="40">
         <v>2</v>
@@ -2208,19 +2711,17 @@
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
-      <c r="XEY41" s="0"/>
-      <c r="XEZ41" s="0"/>
-      <c r="XFA41" s="0"/>
-      <c r="XFB41" s="0"/>
-      <c r="XFC41" s="0"/>
-      <c r="XFD41" s="0"/>
-    </row>
-    <row r="42" spans="1:16384" ht="72.75">
+      <c r="XEY41"/>
+      <c r="XEZ41"/>
+      <c r="XFA41"/>
+      <c r="XFB41"/>
+      <c r="XFC41"/>
+      <c r="XFD41"/>
+    </row>
+    <row r="42" spans="1:25 16379:16384" ht="42">
       <c r="A42" s="39"/>
-      <c r="B42" s="40" t="inlineStr">
-        <is>
-          <t>M0 Limit Flags</t>
-        </is>
+      <c r="B42" s="40" t="s">
+        <v>80</v>
       </c>
       <c r="C42" s="40">
         <v>3</v>
@@ -2239,19 +2740,17 @@
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
-      <c r="XEY42" s="0"/>
-      <c r="XEZ42" s="0"/>
-      <c r="XFA42" s="0"/>
-      <c r="XFB42" s="0"/>
-      <c r="XFC42" s="0"/>
-      <c r="XFD42" s="0"/>
-    </row>
-    <row r="43" spans="1:16384" ht="72.75">
+      <c r="XEY42"/>
+      <c r="XEZ42"/>
+      <c r="XFA42"/>
+      <c r="XFB42"/>
+      <c r="XFC42"/>
+      <c r="XFD42"/>
+    </row>
+    <row r="43" spans="1:25 16379:16384" ht="42">
       <c r="A43" s="39"/>
-      <c r="B43" s="40" t="inlineStr">
-        <is>
-          <t>M1 Limit Flags</t>
-        </is>
+      <c r="B43" s="40" t="s">
+        <v>81</v>
       </c>
       <c r="C43" s="40">
         <v>4</v>
@@ -2271,19 +2770,17 @@
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
-      <c r="XEY43" s="0"/>
-      <c r="XEZ43" s="0"/>
-      <c r="XFA43" s="0"/>
-      <c r="XFB43" s="0"/>
-      <c r="XFC43" s="0"/>
-      <c r="XFD43" s="0"/>
-    </row>
-    <row r="44" spans="1:16384" ht="24.75">
+      <c r="XEY43"/>
+      <c r="XEZ43"/>
+      <c r="XFA43"/>
+      <c r="XFB43"/>
+      <c r="XFC43"/>
+      <c r="XFD43"/>
+    </row>
+    <row r="44" spans="1:25 16379:16384" ht="28">
       <c r="A44" s="39"/>
-      <c r="B44" s="40" t="inlineStr">
-        <is>
-          <t>M0 CAN RX Error Count </t>
-        </is>
+      <c r="B44" s="40" t="s">
+        <v>82</v>
       </c>
       <c r="C44" s="40">
         <v>5</v>
@@ -2302,19 +2799,17 @@
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
-      <c r="XEY44" s="0"/>
-      <c r="XEZ44" s="0"/>
-      <c r="XFA44" s="0"/>
-      <c r="XFB44" s="0"/>
-      <c r="XFC44" s="0"/>
-      <c r="XFD44" s="0"/>
-    </row>
-    <row r="45" spans="1:16384" ht="24.75">
+      <c r="XEY44"/>
+      <c r="XEZ44"/>
+      <c r="XFA44"/>
+      <c r="XFB44"/>
+      <c r="XFC44"/>
+      <c r="XFD44"/>
+    </row>
+    <row r="45" spans="1:25 16379:16384" ht="28">
       <c r="A45" s="39"/>
-      <c r="B45" s="40" t="inlineStr">
-        <is>
-          <t>M0 CAN TX Error Count</t>
-        </is>
+      <c r="B45" s="40" t="s">
+        <v>83</v>
       </c>
       <c r="C45" s="40">
         <v>6</v>
@@ -2333,19 +2828,17 @@
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
-      <c r="XEY45" s="0"/>
-      <c r="XEZ45" s="0"/>
-      <c r="XFA45" s="0"/>
-      <c r="XFB45" s="0"/>
-      <c r="XFC45" s="0"/>
-      <c r="XFD45" s="0"/>
-    </row>
-    <row r="46" spans="1:16384" ht="24.75">
+      <c r="XEY45"/>
+      <c r="XEZ45"/>
+      <c r="XFA45"/>
+      <c r="XFB45"/>
+      <c r="XFC45"/>
+      <c r="XFD45"/>
+    </row>
+    <row r="46" spans="1:25 16379:16384" ht="28">
       <c r="A46" s="39"/>
-      <c r="B46" s="40" t="inlineStr">
-        <is>
-          <t>M1 CAN RX Error Count </t>
-        </is>
+      <c r="B46" s="40" t="s">
+        <v>84</v>
       </c>
       <c r="C46" s="40">
         <v>7</v>
@@ -2364,19 +2857,17 @@
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
       <c r="S46" s="5"/>
-      <c r="XEY46" s="0"/>
-      <c r="XEZ46" s="0"/>
-      <c r="XFA46" s="0"/>
-      <c r="XFB46" s="0"/>
-      <c r="XFC46" s="0"/>
-      <c r="XFD46" s="0"/>
-    </row>
-    <row r="47" spans="1:16384" ht="24.75">
+      <c r="XEY46"/>
+      <c r="XEZ46"/>
+      <c r="XFA46"/>
+      <c r="XFB46"/>
+      <c r="XFC46"/>
+      <c r="XFD46"/>
+    </row>
+    <row r="47" spans="1:25 16379:16384" ht="14">
       <c r="A47" s="39"/>
-      <c r="B47" s="40" t="inlineStr">
-        <is>
-          <t>M1CanTxErrorCount</t>
-        </is>
+      <c r="B47" s="40" t="s">
+        <v>85</v>
       </c>
       <c r="C47" s="40">
         <v>8</v>
@@ -2395,23 +2886,19 @@
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
-      <c r="XEY47" s="0"/>
-      <c r="XEZ47" s="0"/>
-      <c r="XFA47" s="0"/>
-      <c r="XFB47" s="0"/>
-      <c r="XFC47" s="0"/>
-      <c r="XFD47" s="0"/>
-    </row>
-    <row r="48" spans="1:16384" customHeight="1" ht="32.25">
-      <c r="A48" s="9" t="inlineStr">
-        <is>
-          <t>BatteryFaults</t>
-        </is>
-      </c>
-      <c r="B48" s="10" t="inlineStr">
-        <is>
-          <t>PackageID</t>
-        </is>
+      <c r="XEY47"/>
+      <c r="XEZ47"/>
+      <c r="XFA47"/>
+      <c r="XFB47"/>
+      <c r="XFC47"/>
+      <c r="XFD47"/>
+    </row>
+    <row r="48" spans="1:25 16379:16384" ht="32.25" customHeight="1">
+      <c r="A48" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="C48" s="10">
         <v>0</v>
@@ -2420,10 +2907,8 @@
         <v>1</v>
       </c>
       <c r="E48" s="10"/>
-      <c r="F48" s="11" t="inlineStr">
-        <is>
-          <t>ID:6,Quantity:1</t>
-        </is>
+      <c r="F48" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -2442,28 +2927,22 @@
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
     </row>
-    <row r="49" spans="1:16384" customHeight="1" ht="262.5">
+    <row r="49" spans="1:25" ht="262.5" customHeight="1">
       <c r="A49" s="9"/>
-      <c r="B49" s="10" t="inlineStr">
-        <is>
-          <t>ErrorFlags</t>
-        </is>
+      <c r="B49" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="C49" s="10">
         <v>1</v>
       </c>
-      <c r="D49" s="10" t="inlineStr">
-        <is>
-          <t>uint</t>
-        </is>
+      <c r="D49" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F49" s="43" t="inlineStr">
-        <is>
-          <t>0x00000001:InternalCommununicationFault,0x00000002:InternalConversionFault,0x00000004:WeakCellFault,0x00000008:LowCellVoltageFault,0x00000010:OpenWiringFault,0x00000020:CurrentSensorFault,0x00000040:PackVoltageSensorFault,0x00000080:WeakPackFault,0x00000100:VoltageRedundancyFault,0x00000200:FanMonitorFault,0x00000400:ThermistorFault,0x00000800:CanbusCommunicationsFault,0x00001000:AlwaysOnSupplyFault,0x00002000:HighVoltageIsolationFault,0x00004000:PowerSupply12VFault,0x00008000:ChargeLimitEnforcementFault,0x00010000:DischargeLimitEnforcementFault,0x00020000:ChargerSafetyRelayFault,0x00040000:InternalMemoryFault,0x00080000:InternalThermistorFault,0x00100000:InternalLogicFault</t>
-        </is>
+      <c r="F49" s="43" t="s">
+        <v>91</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -2482,12 +2961,10 @@
       <c r="X49" s="5"/>
       <c r="Y49" s="5"/>
     </row>
-    <row r="50" spans="1:16384" customHeight="1" ht="177.75">
+    <row r="50" spans="1:25" ht="177.75" customHeight="1">
       <c r="A50" s="9"/>
-      <c r="B50" s="10" t="inlineStr">
-        <is>
-          <t>LimitFlags</t>
-        </is>
+      <c r="B50" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="C50" s="10">
         <v>4</v>
@@ -2498,10 +2975,8 @@
       <c r="E50" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="43" t="inlineStr">
-        <is>
-          <t>0x0001:DCLReducedDueToLowSOC,0x0002:DCLReducedDueToHighCellResistance,0x0004:DCLReducedDueToTemperature,0x0008:DCLReducedDueToLowCellVoltage,0x0010:DCLReducedDueToLowPackVoltage,0x0040:DCLAndCCLReducedDueToVoltageFailsafe,0x0080:DCLAndCCLReducedDueToCommunicationFailsafe,0x0200:CCLReducedDueToHighSOC,0x0400:CCLReducedDueToHighCellResistance,0x0800:CCLReducedDueToTemperature,0x1000:CCLReducedDueToHighCellVoltage,0x2000:CCLReducedDueToHighPackVoltage,0x4000:CCLReducedDueToChargerLatch,0x8000:CCLReducedDueToAlternateCurrentLimit </t>
-        </is>
+      <c r="F50" s="43" t="s">
+        <v>93</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -2523,11 +2998,9 @@
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
     </row>
-    <row r="51" spans="1:16384" customHeight="1" ht="36">
-      <c r="A51" s="44" t="inlineStr">
-        <is>
-          <t>Battery</t>
-        </is>
+    <row r="51" spans="1:25" ht="36" customHeight="1">
+      <c r="A51" s="44" t="s">
+        <v>94</v>
       </c>
       <c r="B51" s="45" t="s">
         <v>0</v>
@@ -2539,10 +3012,8 @@
         <v>1</v>
       </c>
       <c r="E51" s="45"/>
-      <c r="F51" s="46" t="inlineStr">
-        <is>
-          <t>ID:7,Quantity:1</t>
-        </is>
+      <c r="F51" s="46" t="s">
+        <v>95</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -2564,12 +3035,10 @@
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
     </row>
-    <row r="52" spans="1:16384" ht="108.75">
+    <row r="52" spans="1:25" ht="14">
       <c r="A52" s="44"/>
-      <c r="B52" s="45" t="inlineStr">
-        <is>
-          <t>BMU Alive</t>
-        </is>
+      <c r="B52" s="45" t="s">
+        <v>96</v>
       </c>
       <c r="C52" s="45">
         <v>1</v>
@@ -2582,7 +3051,7 @@
       </c>
       <c r="F52" s="46"/>
       <c r="G52" s="5"/>
-      <c r="H52" s="0"/>
+      <c r="H52"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
@@ -2601,12 +3070,10 @@
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
     </row>
-    <row r="53" spans="1:16384" ht="108.75">
+    <row r="53" spans="1:25" ht="70">
       <c r="A53" s="44"/>
-      <c r="B53" s="45" t="inlineStr">
-        <is>
-          <t>BMS Relay Status</t>
-        </is>
+      <c r="B53" s="45" t="s">
+        <v>97</v>
       </c>
       <c r="C53" s="45">
         <v>2</v>
@@ -2617,10 +3084,8 @@
       <c r="E53" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F53" s="47" t="inlineStr">
-        <is>
-          <t>0x01:DischargeRelayEnabled,0x02:ChargeRelayEnabled,0x04:ChargerSafetyEnabled,0x08:MalfunctionIndicatorActive,0x10:MultiPurposeInputSignalStatus,0x20:AlwaysOnSignalStatus,0x40:IsReadySignalStatus,0x80:IsChargingSignalStatus</t>
-        </is>
+      <c r="F53" s="47" t="s">
+        <v>98</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -2642,12 +3107,10 @@
       <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
     </row>
-    <row r="54" spans="1:16384" ht="24.75">
+    <row r="54" spans="1:25" ht="14">
       <c r="A54" s="44"/>
-      <c r="B54" s="45" t="inlineStr">
-        <is>
-          <t>Populated Cells</t>
-        </is>
+      <c r="B54" s="45" t="s">
+        <v>99</v>
       </c>
       <c r="C54" s="45">
         <v>3</v>
@@ -2679,12 +3142,10 @@
       <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
     </row>
-    <row r="55" spans="1:16384" ht="24.75">
+    <row r="55" spans="1:25" ht="14">
       <c r="A55" s="44"/>
-      <c r="B55" s="45" t="inlineStr">
-        <is>
-          <t>12v Input Voltage</t>
-        </is>
+      <c r="B55" s="45" t="s">
+        <v>100</v>
       </c>
       <c r="C55" s="45">
         <v>4</v>
@@ -2713,12 +3174,10 @@
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
     </row>
-    <row r="56" spans="1:16384" ht="24.75">
+    <row r="56" spans="1:25" ht="14">
       <c r="A56" s="44"/>
-      <c r="B56" s="45" t="inlineStr">
-        <is>
-          <t>Fan Voltage</t>
-        </is>
+      <c r="B56" s="45" t="s">
+        <v>101</v>
       </c>
       <c r="C56" s="45">
         <v>8</v>
@@ -2726,10 +3185,8 @@
       <c r="D56" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="45" t="inlineStr">
-        <is>
-          <t>0.01 V</t>
-        </is>
+      <c r="E56" s="45" t="s">
+        <v>102</v>
       </c>
       <c r="F56" s="46"/>
       <c r="G56" s="5"/>
@@ -2749,12 +3206,10 @@
       <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
     </row>
-    <row r="57" spans="1:16384" ht="24.75">
+    <row r="57" spans="1:25" ht="14">
       <c r="A57" s="44"/>
-      <c r="B57" s="45" t="inlineStr">
-        <is>
-          <t>Pack Current</t>
-        </is>
+      <c r="B57" s="45" t="s">
+        <v>103</v>
       </c>
       <c r="C57" s="45">
         <v>12</v>
@@ -2762,10 +3217,8 @@
       <c r="D57" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="45" t="inlineStr">
-        <is>
-          <t>0.1 A</t>
-        </is>
+      <c r="E57" s="45" t="s">
+        <v>104</v>
       </c>
       <c r="F57" s="46"/>
       <c r="G57" s="5"/>
@@ -2785,12 +3238,10 @@
       <c r="X57" s="5"/>
       <c r="Y57" s="5"/>
     </row>
-    <row r="58" spans="1:16384" ht="24.75">
+    <row r="58" spans="1:25" ht="14">
       <c r="A58" s="44"/>
-      <c r="B58" s="45" t="inlineStr">
-        <is>
-          <t>Pack Voltage</t>
-        </is>
+      <c r="B58" s="45" t="s">
+        <v>105</v>
       </c>
       <c r="C58" s="45">
         <v>16</v>
@@ -2818,12 +3269,10 @@
       <c r="X58" s="5"/>
       <c r="Y58" s="5"/>
     </row>
-    <row r="59" spans="1:16384" ht="24.75">
+    <row r="59" spans="1:25" ht="14">
       <c r="A59" s="44"/>
-      <c r="B59" s="45" t="inlineStr">
-        <is>
-          <t>Pack State of Charge</t>
-        </is>
+      <c r="B59" s="45" t="s">
+        <v>106</v>
       </c>
       <c r="C59" s="45">
         <v>20</v>
@@ -2851,12 +3300,10 @@
       <c r="X59" s="5"/>
       <c r="Y59" s="5"/>
     </row>
-    <row r="60" spans="1:16384" ht="24.75">
+    <row r="60" spans="1:25" ht="14">
       <c r="A60" s="44"/>
-      <c r="B60" s="45" t="inlineStr">
-        <is>
-          <t>Pack Amphours</t>
-        </is>
+      <c r="B60" s="45" t="s">
+        <v>107</v>
       </c>
       <c r="C60" s="45">
         <v>24</v>
@@ -2864,10 +3311,8 @@
       <c r="D60" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E60" s="45" t="inlineStr">
-        <is>
-          <t>0.1 Ah</t>
-        </is>
+      <c r="E60" s="45" t="s">
+        <v>108</v>
       </c>
       <c r="F60" s="46"/>
       <c r="G60" s="5"/>
@@ -2886,12 +3331,10 @@
       <c r="X60" s="5"/>
       <c r="Y60" s="5"/>
     </row>
-    <row r="61" spans="1:16384" ht="24.75">
+    <row r="61" spans="1:25" ht="28">
       <c r="A61" s="44"/>
-      <c r="B61" s="45" t="inlineStr">
-        <is>
-          <t>Pack Depth of Discharge (DOD)</t>
-        </is>
+      <c r="B61" s="45" t="s">
+        <v>109</v>
       </c>
       <c r="C61" s="45">
         <v>28</v>
@@ -2919,12 +3362,10 @@
       <c r="X61" s="5"/>
       <c r="Y61" s="5"/>
     </row>
-    <row r="62" spans="1:16384" ht="24.75">
+    <row r="62" spans="1:25" ht="14">
       <c r="A62" s="44"/>
-      <c r="B62" s="45" t="inlineStr">
-        <is>
-          <t>High Temperature</t>
-        </is>
+      <c r="B62" s="45" t="s">
+        <v>110</v>
       </c>
       <c r="C62" s="45">
         <v>32</v>
@@ -2952,12 +3393,10 @@
       <c r="X62" s="5"/>
       <c r="Y62" s="5"/>
     </row>
-    <row r="63" spans="1:16384" ht="24.75">
+    <row r="63" spans="1:25" ht="14">
       <c r="A63" s="44"/>
-      <c r="B63" s="45" t="inlineStr">
-        <is>
-          <t>High Thermistor ID</t>
-        </is>
+      <c r="B63" s="45" t="s">
+        <v>111</v>
       </c>
       <c r="C63" s="45">
         <v>33</v>
@@ -2985,12 +3424,10 @@
       <c r="X63" s="5"/>
       <c r="Y63" s="5"/>
     </row>
-    <row r="64" spans="1:16384" ht="24.75">
+    <row r="64" spans="1:25" ht="14">
       <c r="A64" s="44"/>
-      <c r="B64" s="45" t="inlineStr">
-        <is>
-          <t>Low Temperature</t>
-        </is>
+      <c r="B64" s="45" t="s">
+        <v>112</v>
       </c>
       <c r="C64" s="45">
         <v>34</v>
@@ -3018,12 +3455,10 @@
       <c r="X64" s="5"/>
       <c r="Y64" s="5"/>
     </row>
-    <row r="65" spans="1:16384" ht="24.75">
+    <row r="65" spans="1:25" ht="14">
       <c r="A65" s="44"/>
-      <c r="B65" s="45" t="inlineStr">
-        <is>
-          <t>Low Thermistor ID</t>
-        </is>
+      <c r="B65" s="45" t="s">
+        <v>113</v>
       </c>
       <c r="C65" s="45">
         <v>35</v>
@@ -3051,12 +3486,10 @@
       <c r="X65" s="5"/>
       <c r="Y65" s="5"/>
     </row>
-    <row r="66" spans="1:16384" ht="24.75">
+    <row r="66" spans="1:25" ht="28">
       <c r="A66" s="44"/>
-      <c r="B66" s="45" t="inlineStr">
-        <is>
-          <t>Average Temperature</t>
-        </is>
+      <c r="B66" s="45" t="s">
+        <v>114</v>
       </c>
       <c r="C66" s="45">
         <v>36</v>
@@ -3084,12 +3517,10 @@
       <c r="X66" s="5"/>
       <c r="Y66" s="5"/>
     </row>
-    <row r="67" spans="1:16384" ht="24.75">
+    <row r="67" spans="1:25" ht="14">
       <c r="A67" s="44"/>
-      <c r="B67" s="45" t="inlineStr">
-        <is>
-          <t>Internal Temperature</t>
-        </is>
+      <c r="B67" s="45" t="s">
+        <v>115</v>
       </c>
       <c r="C67" s="45">
         <v>37</v>
@@ -3112,12 +3543,10 @@
       <c r="X67" s="5"/>
       <c r="Y67" s="5"/>
     </row>
-    <row r="68" spans="1:16384" ht="24.75">
+    <row r="68" spans="1:25" ht="14">
       <c r="A68" s="44"/>
-      <c r="B68" s="45" t="inlineStr">
-        <is>
-          <t>Fan Speed</t>
-        </is>
+      <c r="B68" s="45" t="s">
+        <v>116</v>
       </c>
       <c r="C68" s="45">
         <v>38</v>
@@ -3140,12 +3569,10 @@
       <c r="X68" s="5"/>
       <c r="Y68" s="5"/>
     </row>
-    <row r="69" spans="1:16384" ht="24.75">
+    <row r="69" spans="1:25" ht="28">
       <c r="A69" s="44"/>
-      <c r="B69" s="45" t="inlineStr">
-        <is>
-          <t>Requested Fan Speed</t>
-        </is>
+      <c r="B69" s="45" t="s">
+        <v>117</v>
       </c>
       <c r="C69" s="45">
         <v>39</v>
@@ -3173,12 +3600,10 @@
       <c r="X69" s="5"/>
       <c r="Y69" s="5"/>
     </row>
-    <row r="70" spans="1:16384" ht="24.75">
+    <row r="70" spans="1:25" ht="14">
       <c r="A70" s="44"/>
-      <c r="B70" s="45" t="inlineStr">
-        <is>
-          <t>Low Cell Voltage</t>
-        </is>
+      <c r="B70" s="45" t="s">
+        <v>118</v>
       </c>
       <c r="C70" s="45">
         <v>40</v>
@@ -3210,12 +3635,10 @@
       <c r="X70" s="5"/>
       <c r="Y70" s="5"/>
     </row>
-    <row r="71" spans="1:16384" ht="24.75">
+    <row r="71" spans="1:25" ht="14">
       <c r="A71" s="44"/>
-      <c r="B71" s="45" t="inlineStr">
-        <is>
-          <t>Low Cell Voltage ID</t>
-        </is>
+      <c r="B71" s="45" t="s">
+        <v>119</v>
       </c>
       <c r="C71" s="45">
         <v>42</v>
@@ -3240,12 +3663,10 @@
       <c r="X71" s="5"/>
       <c r="Y71" s="5"/>
     </row>
-    <row r="72" spans="1:16384" ht="24.75">
+    <row r="72" spans="1:25" ht="14">
       <c r="A72" s="44"/>
-      <c r="B72" s="45" t="inlineStr">
-        <is>
-          <t>High Cell Voltage</t>
-        </is>
+      <c r="B72" s="45" t="s">
+        <v>120</v>
       </c>
       <c r="C72" s="45">
         <v>43</v>
@@ -3270,12 +3691,10 @@
       <c r="X72" s="5"/>
       <c r="Y72" s="5"/>
     </row>
-    <row r="73" spans="1:16384" ht="24.75">
+    <row r="73" spans="1:25" ht="14">
       <c r="A73" s="44"/>
-      <c r="B73" s="45" t="inlineStr">
-        <is>
-          <t>High Cell Voltage ID</t>
-        </is>
+      <c r="B73" s="45" t="s">
+        <v>121</v>
       </c>
       <c r="C73" s="45">
         <v>45</v>
@@ -3300,12 +3719,10 @@
       <c r="X73" s="5"/>
       <c r="Y73" s="5"/>
     </row>
-    <row r="74" spans="1:16384" ht="24.75">
+    <row r="74" spans="1:25" ht="14">
       <c r="A74" s="44"/>
-      <c r="B74" s="45" t="inlineStr">
-        <is>
-          <t>Average Cell Voltage</t>
-        </is>
+      <c r="B74" s="45" t="s">
+        <v>122</v>
       </c>
       <c r="C74" s="45">
         <v>46</v>
@@ -3330,11 +3747,9 @@
       <c r="X74" s="5"/>
       <c r="Y74" s="5"/>
     </row>
-    <row r="75" spans="1:16384" ht="24.75">
-      <c r="A75" s="48" t="inlineStr">
-        <is>
-          <t>Mppt</t>
-        </is>
+    <row r="75" spans="1:25" ht="14">
+      <c r="A75" s="48" t="s">
+        <v>123</v>
       </c>
       <c r="B75" s="49" t="s">
         <v>0</v>
@@ -3346,10 +3761,8 @@
         <v>1</v>
       </c>
       <c r="E75" s="49"/>
-      <c r="F75" s="50" t="inlineStr">
-        <is>
-          <t>ID:9,Quantity:4,UniqueId:True</t>
-        </is>
+      <c r="F75" s="50" t="s">
+        <v>124</v>
       </c>
       <c r="G75" s="5"/>
       <c r="R75" s="5"/>
@@ -3361,12 +3774,10 @@
       <c r="X75" s="5"/>
       <c r="Y75" s="5"/>
     </row>
-    <row r="76" spans="1:16384" ht="24.75">
+    <row r="76" spans="1:25" ht="14">
       <c r="A76" s="48"/>
-      <c r="B76" s="49" t="inlineStr">
-        <is>
-          <t>MPPT Status</t>
-        </is>
+      <c r="B76" s="49" t="s">
+        <v>125</v>
       </c>
       <c r="C76" s="49">
         <v>1</v>
@@ -3388,12 +3799,10 @@
       <c r="X76" s="5"/>
       <c r="Y76" s="5"/>
     </row>
-    <row r="77" spans="1:16384" ht="24.75">
+    <row r="77" spans="1:25" ht="14">
       <c r="A77" s="48"/>
-      <c r="B77" s="49" t="inlineStr">
-        <is>
-          <t>Array Voltage</t>
-        </is>
+      <c r="B77" s="49" t="s">
+        <v>126</v>
       </c>
       <c r="C77" s="49">
         <v>2</v>
@@ -3415,12 +3824,10 @@
       <c r="X77" s="5"/>
       <c r="Y77" s="5"/>
     </row>
-    <row r="78" spans="1:16384" ht="24.75">
+    <row r="78" spans="1:25" ht="14">
       <c r="A78" s="48"/>
-      <c r="B78" s="49" t="inlineStr">
-        <is>
-          <t>Array Current</t>
-        </is>
+      <c r="B78" s="49" t="s">
+        <v>127</v>
       </c>
       <c r="C78" s="49">
         <v>4</v>
@@ -3428,10 +3835,8 @@
       <c r="D78" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="49" t="inlineStr">
-        <is>
-          <t>mA</t>
-        </is>
+      <c r="E78" s="49" t="s">
+        <v>128</v>
       </c>
       <c r="F78" s="50"/>
       <c r="G78" s="5"/>
@@ -3448,12 +3853,10 @@
       <c r="X78" s="5"/>
       <c r="Y78" s="5"/>
     </row>
-    <row r="79" spans="1:16384" ht="24.75">
+    <row r="79" spans="1:25" ht="14">
       <c r="A79" s="48"/>
-      <c r="B79" s="49" t="inlineStr">
-        <is>
-          <t>Battery Voltage</t>
-        </is>
+      <c r="B79" s="49" t="s">
+        <v>129</v>
       </c>
       <c r="C79" s="49">
         <v>6</v>
@@ -3479,12 +3882,10 @@
       <c r="X79" s="5"/>
       <c r="Y79" s="5"/>
     </row>
-    <row r="80" spans="1:16384" ht="24.75">
+    <row r="80" spans="1:25" ht="14">
       <c r="A80" s="48"/>
-      <c r="B80" s="49" t="inlineStr">
-        <is>
-          <t>Temperature</t>
-        </is>
+      <c r="B80" s="49" t="s">
+        <v>130</v>
       </c>
       <c r="C80" s="49">
         <v>8</v>
@@ -3492,10 +3893,8 @@
       <c r="D80" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E80" s="49" t="inlineStr">
-        <is>
-          <t>1/100th °C</t>
-        </is>
+      <c r="E80" s="49" t="s">
+        <v>131</v>
       </c>
       <c r="F80" s="50"/>
       <c r="G80" s="5"/>
@@ -3512,11 +3911,9 @@
       <c r="X80" s="5"/>
       <c r="Y80" s="5"/>
     </row>
-    <row r="81" spans="1:16384" ht="24.75">
-      <c r="A81" s="51" t="inlineStr">
-        <is>
-          <t>Lights</t>
-        </is>
+    <row r="81" spans="1:25" ht="14">
+      <c r="A81" s="51" t="s">
+        <v>132</v>
       </c>
       <c r="B81" s="52" t="s">
         <v>0</v>
@@ -3528,10 +3925,8 @@
         <v>1</v>
       </c>
       <c r="E81" s="52"/>
-      <c r="F81" s="53" t="inlineStr">
-        <is>
-          <t>ID:10,Quantity:1</t>
-        </is>
+      <c r="F81" s="53" t="s">
+        <v>133</v>
       </c>
       <c r="G81" s="5"/>
       <c r="N81" s="5"/>
@@ -3547,12 +3942,10 @@
       <c r="X81" s="5"/>
       <c r="Y81" s="5"/>
     </row>
-    <row r="82" spans="1:16384" ht="24.75">
+    <row r="82" spans="1:25" ht="14">
       <c r="A82" s="51"/>
-      <c r="B82" s="52" t="inlineStr">
-        <is>
-          <t>Lights Alive</t>
-        </is>
+      <c r="B82" s="52" t="s">
+        <v>134</v>
       </c>
       <c r="C82" s="52">
         <v>1</v>
@@ -3578,12 +3971,10 @@
       <c r="X82" s="5"/>
       <c r="Y82" s="5"/>
     </row>
-    <row r="83" spans="1:16384" customHeight="1" ht="52.5">
+    <row r="83" spans="1:25" ht="52.5" customHeight="1">
       <c r="A83" s="51"/>
-      <c r="B83" s="52" t="inlineStr">
-        <is>
-          <t>Lights Status</t>
-        </is>
+      <c r="B83" s="52" t="s">
+        <v>135</v>
       </c>
       <c r="C83" s="52">
         <v>2</v>
@@ -3594,13 +3985,11 @@
       <c r="E83" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="F83" s="54" t="inlineStr">
-        <is>
-          <t>0x01:LowBeams,0x02:HighBeams,0x04:BrakeLights,0x08:LeftSignal,0x10:RightSignal,0x20:BmsStrobeLight</t>
-        </is>
+      <c r="F83" s="54" t="s">
+        <v>136</v>
       </c>
       <c r="G83" s="5"/>
-      <c r="H83" s="0"/>
+      <c r="H83"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
@@ -3614,11 +4003,9 @@
       <c r="X83" s="5"/>
       <c r="Y83" s="5"/>
     </row>
-    <row r="84" spans="1:16384" ht="24.75">
-      <c r="A84" s="55" t="inlineStr">
-        <is>
-          <t>AuxBms</t>
-        </is>
+    <row r="84" spans="1:25" ht="14">
+      <c r="A84" s="55" t="s">
+        <v>137</v>
       </c>
       <c r="B84" s="55" t="s">
         <v>0</v>
@@ -3630,10 +4017,8 @@
         <v>1</v>
       </c>
       <c r="E84" s="55"/>
-      <c r="F84" s="56" t="inlineStr">
-        <is>
-          <t>ID:11,Quantity:1</t>
-        </is>
+      <c r="F84" s="56" t="s">
+        <v>138</v>
       </c>
       <c r="G84" s="5"/>
       <c r="N84" s="5"/>
@@ -3649,12 +4034,10 @@
       <c r="X84" s="5"/>
       <c r="Y84" s="5"/>
     </row>
-    <row r="85" spans="1:16384" ht="72.75">
+    <row r="85" spans="1:25" ht="14">
       <c r="A85" s="55"/>
-      <c r="B85" s="55" t="inlineStr">
-        <is>
-          <t>Precharge State</t>
-        </is>
+      <c r="B85" s="55" t="s">
+        <v>139</v>
       </c>
       <c r="C85" s="55">
         <v>1</v>
@@ -3662,10 +4045,8 @@
       <c r="D85" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="E85" s="55" t="inlineStr">
-        <is>
-          <t>flag</t>
-        </is>
+      <c r="E85" s="55" t="s">
+        <v>140</v>
       </c>
       <c r="F85" s="57"/>
       <c r="G85" s="5"/>
@@ -3682,12 +4063,10 @@
       <c r="X85" s="5"/>
       <c r="Y85" s="5"/>
     </row>
-    <row r="86" spans="1:16384" ht="24.75">
+    <row r="86" spans="1:25" ht="14">
       <c r="A86" s="55"/>
-      <c r="B86" s="55" t="inlineStr">
-        <is>
-          <t>Aux Voltage</t>
-        </is>
+      <c r="B86" s="55" t="s">
+        <v>141</v>
       </c>
       <c r="C86" s="55">
         <v>2</v>
@@ -3695,10 +4074,8 @@
       <c r="D86" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="E86" s="55" t="inlineStr">
-        <is>
-          <t>mV</t>
-        </is>
+      <c r="E86" s="55" t="s">
+        <v>142</v>
       </c>
       <c r="F86" s="57"/>
       <c r="G86" s="5"/>
@@ -3715,12 +4092,10 @@
       <c r="X86" s="5"/>
       <c r="Y86" s="5"/>
     </row>
-    <row r="87" spans="1:16384" ht="24.75">
+    <row r="87" spans="1:25" ht="14">
       <c r="A87" s="55"/>
-      <c r="B87" s="55" t="inlineStr">
-        <is>
-          <t>Aux BMS Alive</t>
-        </is>
+      <c r="B87" s="55" t="s">
+        <v>158</v>
       </c>
       <c r="C87" s="55">
         <v>3</v>
@@ -3746,12 +4121,10 @@
       <c r="X87" s="5"/>
       <c r="Y87" s="5"/>
     </row>
-    <row r="88" spans="1:16384" ht="24.75">
+    <row r="88" spans="1:25" ht="14">
       <c r="A88" s="55"/>
-      <c r="B88" s="55" t="inlineStr">
-        <is>
-          <t>Strobe BMS Light</t>
-        </is>
+      <c r="B88" s="55" t="s">
+        <v>159</v>
       </c>
       <c r="C88" s="55">
         <v>4</v>
@@ -3777,12 +4150,10 @@
       <c r="X88" s="5"/>
       <c r="Y88" s="5"/>
     </row>
-    <row r="89" spans="1:16384" ht="24.75">
+    <row r="89" spans="1:25" ht="14">
       <c r="A89" s="55"/>
-      <c r="B89" s="55" t="inlineStr">
-        <is>
-          <t>Allow Charge</t>
-        </is>
+      <c r="B89" s="55" t="s">
+        <v>143</v>
       </c>
       <c r="C89" s="55">
         <v>5</v>
@@ -3808,12 +4179,10 @@
       <c r="X89" s="5"/>
       <c r="Y89" s="5"/>
     </row>
-    <row r="90" spans="1:16384" ht="24.75">
+    <row r="90" spans="1:25" ht="28">
       <c r="A90" s="55"/>
-      <c r="B90" s="55" t="inlineStr">
-        <is>
-          <t>High Voltage Enable State</t>
-        </is>
+      <c r="B90" s="55" t="s">
+        <v>144</v>
       </c>
       <c r="C90" s="58">
         <v>6</v>
@@ -3839,12 +4208,10 @@
       <c r="X90" s="5"/>
       <c r="Y90" s="5"/>
     </row>
-    <row r="91" spans="1:16384" ht="24.75">
+    <row r="91" spans="1:25" ht="14">
       <c r="A91" s="55"/>
-      <c r="B91" s="55" t="inlineStr">
-        <is>
-          <t>Allow Discharge</t>
-        </is>
+      <c r="B91" s="55" t="s">
+        <v>145</v>
       </c>
       <c r="C91" s="58">
         <v>7</v>
@@ -3870,12 +4237,10 @@
       <c r="X91" s="5"/>
       <c r="Y91" s="5"/>
     </row>
-    <row r="92" spans="1:16384" ht="24.75">
+    <row r="92" spans="1:25" ht="28">
       <c r="A92" s="55"/>
-      <c r="B92" s="55" t="inlineStr">
-        <is>
-          <t>Orion CAN Received Recently</t>
-        </is>
+      <c r="B92" s="55" t="s">
+        <v>157</v>
       </c>
       <c r="C92" s="58">
         <v>8</v>
@@ -3901,12 +4266,10 @@
       <c r="X92" s="5"/>
       <c r="Y92" s="5"/>
     </row>
-    <row r="93" spans="1:16384" ht="72.75">
+    <row r="93" spans="1:25" ht="56">
       <c r="A93" s="60"/>
-      <c r="B93" s="55" t="inlineStr">
-        <is>
-          <t>Aux Contactor Debug Info</t>
-        </is>
+      <c r="B93" s="55" t="s">
+        <v>146</v>
       </c>
       <c r="C93" s="58">
         <v>9</v>
@@ -3917,13 +4280,11 @@
       <c r="E93" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="F93" s="61" t="inlineStr">
-        <is>
-          <t>0x01:ChargeContactorError,0x02:DischargeContactorError,0x04:CommonContactorError,0x08:DischargeShouldTrip,0x10:ChargeShouldTrip,0x20:ChargeOpenButShouldBeClosed,0x40:DischargeOpenButShouldBeClosed</t>
-        </is>
+      <c r="F93" s="61" t="s">
+        <v>147</v>
       </c>
       <c r="G93" s="5"/>
-      <c r="H93" s="0"/>
+      <c r="H93"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
       <c r="P93" s="5"/>
@@ -3937,26 +4298,22 @@
       <c r="X93" s="5"/>
       <c r="Y93" s="5"/>
     </row>
-    <row r="94" spans="1:16384" ht="144.75">
+    <row r="94" spans="1:25" ht="126">
       <c r="A94" s="62"/>
-      <c r="B94" s="62" t="inlineStr">
-        <is>
-          <t>Aux Trip</t>
-        </is>
+      <c r="B94" s="62" t="s">
+        <v>148</v>
       </c>
       <c r="C94" s="63">
         <v>10</v>
       </c>
       <c r="D94" s="63" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E94" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="F94" s="64" t="inlineStr">
-        <is>
-          <t>0x0001:ChargeTripDueToHighCellVoltage,0x0002:ChargeTripDueToHighTemperatureAndCurrent,0x0004:ChargeTripDueToPackCurrent,0x0008:DischargeTripDueToLowCellVoltage,0x0010:DischargeTripDueToHighTemperatureAndCurrent,0x0020:DischargeTripDueToPackCurrent,0x0040:ProtectionTrip,0x0080:TripDueToOrionMessageTimeout,0x0100:ChargeNotClosedDueToHighCurrent,0x0200:DischargeNotClosedDueToHighCurrent,0x0400:TripDueToContactorDisconnectedUnexpectedly</t>
-        </is>
+      <c r="F94" s="64" t="s">
+        <v>149</v>
       </c>
       <c r="G94" s="5"/>
       <c r="R94" s="5"/>
@@ -3968,7 +4325,7 @@
       <c r="X94" s="5"/>
       <c r="Y94" s="5"/>
     </row>
-    <row r="95" spans="1:16384" ht="36.75">
+    <row r="95" spans="1:25">
       <c r="G95" s="5"/>
       <c r="R95" s="5"/>
       <c r="S95" s="5"/>
@@ -3979,7 +4336,7 @@
       <c r="X95" s="5"/>
       <c r="Y95" s="5"/>
     </row>
-    <row r="96" spans="1:16384" ht="24.75">
+    <row r="96" spans="1:25">
       <c r="G96" s="5"/>
       <c r="R96" s="5"/>
       <c r="S96" s="5"/>
@@ -3990,7 +4347,7 @@
       <c r="X96" s="5"/>
       <c r="Y96" s="5"/>
     </row>
-    <row r="97" spans="1:16384" ht="24.75">
+    <row r="97" spans="7:25">
       <c r="G97" s="5"/>
       <c r="R97" s="5"/>
       <c r="S97" s="5"/>
@@ -4001,7 +4358,7 @@
       <c r="X97" s="5"/>
       <c r="Y97" s="5"/>
     </row>
-    <row r="98" spans="1:16384" ht="24.75">
+    <row r="98" spans="7:25">
       <c r="G98" s="5"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
@@ -4016,7 +4373,7 @@
       <c r="X98" s="5"/>
       <c r="Y98" s="5"/>
     </row>
-    <row r="99" spans="1:16384" ht="24.75">
+    <row r="99" spans="7:25">
       <c r="G99" s="5"/>
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
@@ -4031,7 +4388,7 @@
       <c r="X99" s="5"/>
       <c r="Y99" s="5"/>
     </row>
-    <row r="100" spans="1:16384" ht="24.75">
+    <row r="100" spans="7:25">
       <c r="G100" s="5"/>
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
@@ -4046,7 +4403,7 @@
       <c r="X100" s="5"/>
       <c r="Y100" s="5"/>
     </row>
-    <row r="101" spans="1:16384" ht="24.75">
+    <row r="101" spans="7:25">
       <c r="G101" s="5"/>
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
@@ -4061,7 +4418,7 @@
       <c r="X101" s="5"/>
       <c r="Y101" s="5"/>
     </row>
-    <row r="102" spans="1:16384" ht="24.75">
+    <row r="102" spans="7:25">
       <c r="G102" s="5"/>
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
@@ -4076,7 +4433,7 @@
       <c r="X102" s="5"/>
       <c r="Y102" s="5"/>
     </row>
-    <row r="103" spans="1:16384" ht="24.75">
+    <row r="103" spans="7:25">
       <c r="G103" s="5"/>
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
@@ -4091,7 +4448,7 @@
       <c r="X103" s="5"/>
       <c r="Y103" s="5"/>
     </row>
-    <row r="104" spans="1:16384" ht="24.75">
+    <row r="104" spans="7:25">
       <c r="G104" s="5"/>
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
@@ -4106,7 +4463,7 @@
       <c r="X104" s="5"/>
       <c r="Y104" s="5"/>
     </row>
-    <row r="105" spans="1:16384" ht="24.75">
+    <row r="105" spans="7:25">
       <c r="G105" s="5"/>
       <c r="N105" s="5"/>
       <c r="O105" s="5"/>
@@ -4121,7 +4478,7 @@
       <c r="X105" s="5"/>
       <c r="Y105" s="5"/>
     </row>
-    <row r="106" spans="1:16384" ht="36.75">
+    <row r="106" spans="7:25">
       <c r="G106" s="5"/>
       <c r="N106" s="5"/>
       <c r="O106" s="5"/>
@@ -4136,7 +4493,7 @@
       <c r="X106" s="5"/>
       <c r="Y106" s="5"/>
     </row>
-    <row r="107" spans="1:16384" ht="24.75">
+    <row r="107" spans="7:25">
       <c r="G107" s="5"/>
       <c r="N107" s="5"/>
       <c r="O107" s="5"/>
@@ -4151,7 +4508,7 @@
       <c r="X107" s="5"/>
       <c r="Y107" s="5"/>
     </row>
-    <row r="108" spans="1:16384" ht="24.75">
+    <row r="108" spans="7:25">
       <c r="G108" s="5"/>
       <c r="N108" s="5"/>
       <c r="O108" s="5"/>
@@ -4166,7 +4523,7 @@
       <c r="X108" s="5"/>
       <c r="Y108" s="5"/>
     </row>
-    <row r="109" spans="1:16384" ht="24.75">
+    <row r="109" spans="7:25">
       <c r="G109" s="5"/>
       <c r="N109" s="5"/>
       <c r="O109" s="5"/>
@@ -4181,7 +4538,7 @@
       <c r="X109" s="5"/>
       <c r="Y109" s="5"/>
     </row>
-    <row r="110" spans="1:16384" ht="24.75">
+    <row r="110" spans="7:25">
       <c r="G110" s="5"/>
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
@@ -4196,7 +4553,7 @@
       <c r="X110" s="5"/>
       <c r="Y110" s="5"/>
     </row>
-    <row r="111" spans="1:16384" ht="24.75">
+    <row r="111" spans="7:25">
       <c r="G111" s="5"/>
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
@@ -4211,7 +4568,7 @@
       <c r="X111" s="5"/>
       <c r="Y111" s="5"/>
     </row>
-    <row r="112" spans="1:16384" ht="24.75">
+    <row r="112" spans="7:25">
       <c r="G112" s="5"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
@@ -4226,7 +4583,7 @@
       <c r="X112" s="5"/>
       <c r="Y112" s="5"/>
     </row>
-    <row r="113" spans="1:16384" ht="24.75">
+    <row r="113" spans="7:25">
       <c r="G113" s="5"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
@@ -4241,7 +4598,7 @@
       <c r="X113" s="5"/>
       <c r="Y113" s="5"/>
     </row>
-    <row r="114" spans="1:16384" ht="24.75">
+    <row r="114" spans="7:25">
       <c r="G114" s="5"/>
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
@@ -4256,7 +4613,7 @@
       <c r="X114" s="5"/>
       <c r="Y114" s="5"/>
     </row>
-    <row r="115" spans="1:16384" ht="24.75">
+    <row r="115" spans="7:25">
       <c r="G115" s="5"/>
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
@@ -4271,7 +4628,7 @@
       <c r="X115" s="5"/>
       <c r="Y115" s="5"/>
     </row>
-    <row r="116" spans="1:16384" ht="24.75">
+    <row r="116" spans="7:25">
       <c r="G116" s="5"/>
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
@@ -4286,7 +4643,7 @@
       <c r="X116" s="5"/>
       <c r="Y116" s="5"/>
     </row>
-    <row r="117" spans="1:16384" ht="24.75">
+    <row r="117" spans="7:25">
       <c r="G117" s="5"/>
       <c r="N117" s="5"/>
       <c r="O117" s="5"/>
@@ -4301,7 +4658,7 @@
       <c r="X117" s="5"/>
       <c r="Y117" s="5"/>
     </row>
-    <row r="118" spans="1:16384" ht="24.75">
+    <row r="118" spans="7:25">
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
@@ -4322,7 +4679,7 @@
       <c r="X118" s="5"/>
       <c r="Y118" s="5"/>
     </row>
-    <row r="119" spans="1:16384" ht="24.75">
+    <row r="119" spans="7:25">
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
@@ -4343,7 +4700,7 @@
       <c r="X119" s="5"/>
       <c r="Y119" s="5"/>
     </row>
-    <row r="120" spans="1:16384" ht="24.75">
+    <row r="120" spans="7:25">
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
@@ -4364,7 +4721,7 @@
       <c r="X120" s="5"/>
       <c r="Y120" s="5"/>
     </row>
-    <row r="121" spans="1:16384" ht="24.75">
+    <row r="121" spans="7:25">
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
@@ -4385,7 +4742,7 @@
       <c r="X121" s="5"/>
       <c r="Y121" s="5"/>
     </row>
-    <row r="122" spans="1:16384" ht="24.75">
+    <row r="122" spans="7:25">
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
@@ -4406,7 +4763,7 @@
       <c r="X122" s="5"/>
       <c r="Y122" s="5"/>
     </row>
-    <row r="123" spans="1:16384" ht="24.75">
+    <row r="123" spans="7:25">
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
@@ -4427,7 +4784,7 @@
       <c r="X123" s="5"/>
       <c r="Y123" s="5"/>
     </row>
-    <row r="124" spans="1:16384" ht="24.75">
+    <row r="124" spans="7:25">
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
@@ -4448,7 +4805,7 @@
       <c r="X124" s="5"/>
       <c r="Y124" s="5"/>
     </row>
-    <row r="125" spans="1:16384" ht="24.75">
+    <row r="125" spans="7:25">
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
@@ -4469,7 +4826,7 @@
       <c r="X125" s="5"/>
       <c r="Y125" s="5"/>
     </row>
-    <row r="126" spans="1:16384" ht="24.75">
+    <row r="126" spans="7:25">
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
@@ -4490,7 +4847,7 @@
       <c r="X126" s="5"/>
       <c r="Y126" s="5"/>
     </row>
-    <row r="127" spans="1:16384" ht="24.75">
+    <row r="127" spans="7:25">
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
@@ -4511,7 +4868,7 @@
       <c r="X127" s="5"/>
       <c r="Y127" s="5"/>
     </row>
-    <row r="128" spans="1:16384" ht="36.75">
+    <row r="128" spans="7:25">
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
@@ -4532,7 +4889,7 @@
       <c r="X128" s="5"/>
       <c r="Y128" s="5"/>
     </row>
-    <row r="129" spans="1:16384" ht="24.75">
+    <row r="129" spans="7:25">
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
@@ -4553,7 +4910,7 @@
       <c r="X129" s="5"/>
       <c r="Y129" s="5"/>
     </row>
-    <row r="130" spans="1:16384" ht="24.75">
+    <row r="130" spans="7:25">
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
@@ -4574,7 +4931,7 @@
       <c r="X130" s="5"/>
       <c r="Y130" s="5"/>
     </row>
-    <row r="131" spans="1:16384" ht="24.75">
+    <row r="131" spans="7:25">
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
@@ -4595,7 +4952,7 @@
       <c r="X131" s="5"/>
       <c r="Y131" s="5"/>
     </row>
-    <row r="132" spans="1:16384" ht="24.75">
+    <row r="132" spans="7:25">
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
@@ -4616,7 +4973,7 @@
       <c r="X132" s="5"/>
       <c r="Y132" s="5"/>
     </row>
-    <row r="133" spans="1:16384" ht="72.75">
+    <row r="133" spans="7:25">
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
@@ -4637,7 +4994,7 @@
       <c r="X133" s="5"/>
       <c r="Y133" s="5"/>
     </row>
-    <row r="134" spans="1:16384" ht="24.75">
+    <row r="134" spans="7:25">
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
@@ -4658,7 +5015,7 @@
       <c r="X134" s="5"/>
       <c r="Y134" s="5"/>
     </row>
-    <row r="135" spans="1:16384" ht="24.75">
+    <row r="135" spans="7:25">
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
@@ -4679,7 +5036,7 @@
       <c r="X135" s="5"/>
       <c r="Y135" s="5"/>
     </row>
-    <row r="136" spans="1:16384" ht="24.75">
+    <row r="136" spans="7:25">
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
@@ -4700,7 +5057,7 @@
       <c r="X136" s="5"/>
       <c r="Y136" s="5"/>
     </row>
-    <row r="137" spans="1:16384" ht="24.75">
+    <row r="137" spans="7:25">
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
@@ -4721,7 +5078,7 @@
       <c r="X137" s="5"/>
       <c r="Y137" s="5"/>
     </row>
-    <row r="138" spans="1:16384" ht="24.75">
+    <row r="138" spans="7:25">
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
@@ -4742,7 +5099,7 @@
       <c r="X138" s="5"/>
       <c r="Y138" s="5"/>
     </row>
-    <row r="139" spans="1:16384" ht="24.75">
+    <row r="139" spans="7:25">
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
@@ -4763,7 +5120,7 @@
       <c r="X139" s="5"/>
       <c r="Y139" s="5"/>
     </row>
-    <row r="140" spans="1:16384" ht="24.75">
+    <row r="140" spans="7:25">
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
@@ -4784,7 +5141,7 @@
       <c r="X140" s="5"/>
       <c r="Y140" s="5"/>
     </row>
-    <row r="141" spans="1:16384" ht="24.75">
+    <row r="141" spans="7:25">
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
@@ -4804,7 +5161,7 @@
       <c r="X141" s="5"/>
       <c r="Y141" s="5"/>
     </row>
-    <row r="142" spans="1:16384" ht="24.75">
+    <row r="142" spans="7:25">
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
@@ -4825,7 +5182,7 @@
       <c r="X142" s="5"/>
       <c r="Y142" s="5"/>
     </row>
-    <row r="143" spans="1:16384" ht="24.75">
+    <row r="143" spans="7:25">
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
@@ -4846,7 +5203,7 @@
       <c r="X143" s="5"/>
       <c r="Y143" s="5"/>
     </row>
-    <row r="144" spans="1:16384" ht="24.75">
+    <row r="144" spans="7:25">
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
@@ -4867,7 +5224,7 @@
       <c r="X144" s="5"/>
       <c r="Y144" s="5"/>
     </row>
-    <row r="145" spans="1:16384" ht="24.75">
+    <row r="145" spans="7:25">
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
@@ -4888,7 +5245,7 @@
       <c r="X145" s="5"/>
       <c r="Y145" s="5"/>
     </row>
-    <row r="146" spans="1:16384" ht="24.75">
+    <row r="146" spans="7:25">
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
@@ -4909,7 +5266,7 @@
       <c r="X146" s="5"/>
       <c r="Y146" s="5"/>
     </row>
-    <row r="147" spans="1:16384" ht="24.75">
+    <row r="147" spans="7:25">
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
@@ -4930,7 +5287,7 @@
       <c r="X147" s="5"/>
       <c r="Y147" s="5"/>
     </row>
-    <row r="148" spans="1:16384" ht="36.75">
+    <row r="148" spans="7:25">
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
@@ -4951,14 +5308,9 @@
       <c r="X148" s="5"/>
       <c r="Y148" s="5"/>
     </row>
-    <row r="149" spans="1:16384" ht="24.75">
-      <c r="G149" s="5" t="inlineStr">
-        <is>
-          <t>Unit 0 Channel 0  -&gt; Channel Number 0
-Unit 0 Channel 1  -&gt; Channel Number 1
-Unit 1 Channel 0  -&gt; Channel Number 2
-Unit 1 Channel 1  -&gt; Channel Number 3</t>
-        </is>
+    <row r="149" spans="7:25" ht="56">
+      <c r="G149" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
@@ -4979,7 +5331,7 @@
       <c r="X149" s="5"/>
       <c r="Y149" s="5"/>
     </row>
-    <row r="150" spans="1:16384" ht="24.75">
+    <row r="150" spans="7:25">
       <c r="G150" s="5"/>
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
@@ -5000,7 +5352,7 @@
       <c r="X150" s="5"/>
       <c r="Y150" s="5"/>
     </row>
-    <row r="151" spans="1:16384" ht="24.75">
+    <row r="151" spans="7:25">
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
@@ -5021,7 +5373,7 @@
       <c r="X151" s="5"/>
       <c r="Y151" s="5"/>
     </row>
-    <row r="152" spans="1:16384" ht="24.75">
+    <row r="152" spans="7:25">
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
@@ -5042,7 +5394,7 @@
       <c r="X152" s="5"/>
       <c r="Y152" s="5"/>
     </row>
-    <row r="153" spans="1:16384" ht="24.75">
+    <row r="153" spans="7:25">
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
@@ -5063,7 +5415,7 @@
       <c r="X153" s="5"/>
       <c r="Y153" s="5"/>
     </row>
-    <row r="154" spans="1:16384" ht="24.75">
+    <row r="154" spans="7:25">
       <c r="G154" s="5"/>
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
@@ -5084,11 +5436,9 @@
       <c r="X154" s="5"/>
       <c r="Y154" s="5"/>
     </row>
-    <row r="155" spans="1:16384" ht="24.75">
-      <c r="G155" s="5" t="inlineStr">
-        <is>
-          <t>070a01027c8f00</t>
-        </is>
+    <row r="155" spans="7:25" ht="14">
+      <c r="G155" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
@@ -5109,7 +5459,7 @@
       <c r="X155" s="5"/>
       <c r="Y155" s="5"/>
     </row>
-    <row r="156" spans="1:16384" ht="24.75">
+    <row r="156" spans="7:25">
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
       <c r="I156" s="5"/>
@@ -5130,7 +5480,7 @@
       <c r="X156" s="5"/>
       <c r="Y156" s="5"/>
     </row>
-    <row r="157" spans="1:16384" ht="24.75">
+    <row r="157" spans="7:25">
       <c r="G157" s="5"/>
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
@@ -5151,7 +5501,7 @@
       <c r="X157" s="5"/>
       <c r="Y157" s="5"/>
     </row>
-    <row r="158" spans="1:16384" ht="24.75">
+    <row r="158" spans="7:25">
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
       <c r="I158" s="5"/>
@@ -5172,7 +5522,7 @@
       <c r="X158" s="5"/>
       <c r="Y158" s="5"/>
     </row>
-    <row r="159" spans="1:16384" ht="24.75">
+    <row r="159" spans="7:25">
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
@@ -5193,7 +5543,7 @@
       <c r="X159" s="5"/>
       <c r="Y159" s="5"/>
     </row>
-    <row r="160" spans="1:16384" ht="24.75">
+    <row r="160" spans="7:25">
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
@@ -5214,7 +5564,7 @@
       <c r="X160" s="5"/>
       <c r="Y160" s="5"/>
     </row>
-    <row r="161" spans="1:16384" ht="24.75">
+    <row r="161" spans="7:25">
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
@@ -5235,7 +5585,7 @@
       <c r="X161" s="5"/>
       <c r="Y161" s="5"/>
     </row>
-    <row r="162" spans="1:16384" ht="24.75">
+    <row r="162" spans="7:25">
       <c r="G162" s="5"/>
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
@@ -5256,7 +5606,7 @@
       <c r="X162" s="5"/>
       <c r="Y162" s="5"/>
     </row>
-    <row r="163" spans="1:16384" ht="24.75">
+    <row r="163" spans="7:25">
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
@@ -5277,11 +5627,9 @@
       <c r="X163" s="5"/>
       <c r="Y163" s="5"/>
     </row>
-    <row r="164" spans="1:16384" ht="24.75">
-      <c r="G164" s="5" t="inlineStr">
-        <is>
-          <t>Note: Precharge state corresponds to the states of the contactors (See CAN Protocol)</t>
-        </is>
+    <row r="164" spans="7:25" ht="28">
+      <c r="G164" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="H164" s="66"/>
       <c r="I164" s="5"/>
@@ -5302,7 +5650,7 @@
       <c r="X164" s="5"/>
       <c r="Y164" s="5"/>
     </row>
-    <row r="165" spans="1:16384" ht="24.75">
+    <row r="165" spans="7:25">
       <c r="G165" s="5"/>
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
@@ -5323,7 +5671,7 @@
       <c r="X165" s="5"/>
       <c r="Y165" s="5"/>
     </row>
-    <row r="166" spans="1:16384" ht="24.75">
+    <row r="166" spans="7:25">
       <c r="G166" s="5"/>
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
@@ -5344,7 +5692,7 @@
       <c r="X166" s="5"/>
       <c r="Y166" s="5"/>
     </row>
-    <row r="167" spans="1:16384" ht="24.75">
+    <row r="167" spans="7:25">
       <c r="G167" s="5"/>
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
@@ -5365,7 +5713,7 @@
       <c r="X167" s="5"/>
       <c r="Y167" s="5"/>
     </row>
-    <row r="168" spans="1:16384" ht="24.75">
+    <row r="168" spans="7:25">
       <c r="G168" s="5"/>
       <c r="H168" s="29"/>
       <c r="J168" s="5"/>
@@ -5385,7 +5733,7 @@
       <c r="X168" s="5"/>
       <c r="Y168" s="5"/>
     </row>
-    <row r="169" spans="1:16384" ht="24.75">
+    <row r="169" spans="7:25">
       <c r="G169" s="5"/>
       <c r="H169" s="29"/>
       <c r="J169" s="5"/>
@@ -5405,7 +5753,7 @@
       <c r="X169" s="5"/>
       <c r="Y169" s="5"/>
     </row>
-    <row r="170" spans="1:16384" ht="24.75">
+    <row r="170" spans="7:25">
       <c r="G170" s="5"/>
       <c r="H170" s="29"/>
       <c r="J170" s="5"/>
@@ -5425,17 +5773,17 @@
       <c r="X170" s="5"/>
       <c r="Y170" s="5"/>
     </row>
-    <row r="171" spans="1:16384" ht="24.75">
+    <row r="171" spans="7:25">
       <c r="G171" s="5"/>
       <c r="H171" s="29"/>
       <c r="J171" s="5"/>
     </row>
-    <row r="172" spans="1:16384" ht="24.75">
+    <row r="172" spans="7:25">
       <c r="H172" s="29"/>
       <c r="J172" s="5"/>
       <c r="K172" s="5"/>
     </row>
-    <row r="173" spans="1:16384" ht="24.75">
+    <row r="173" spans="7:25">
       <c r="H173" s="29"/>
       <c r="J173" s="5"/>
       <c r="K173" s="5"/>
@@ -5454,7 +5802,7 @@
       <c r="X173" s="5"/>
       <c r="Y173" s="5"/>
     </row>
-    <row r="174" spans="1:16384" ht="24.75">
+    <row r="174" spans="7:25">
       <c r="H174" s="29"/>
       <c r="J174" s="5"/>
       <c r="K174" s="5"/>
@@ -5473,7 +5821,7 @@
       <c r="X174" s="5"/>
       <c r="Y174" s="5"/>
     </row>
-    <row r="175" spans="1:16384" ht="24.75">
+    <row r="175" spans="7:25">
       <c r="H175" s="5"/>
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
@@ -5492,7 +5840,7 @@
       <c r="X175" s="5"/>
       <c r="Y175" s="5"/>
     </row>
-    <row r="176" spans="1:16384" ht="24.75">
+    <row r="176" spans="7:25">
       <c r="H176" s="5"/>
       <c r="J176" s="5"/>
       <c r="K176" s="5"/>
@@ -5511,7 +5859,7 @@
       <c r="X176" s="5"/>
       <c r="Y176" s="5"/>
     </row>
-    <row r="177" spans="1:16384" ht="24.75">
+    <row r="177" spans="7:25">
       <c r="H177" s="5"/>
       <c r="J177" s="5"/>
       <c r="K177" s="5"/>
@@ -5530,7 +5878,7 @@
       <c r="X177" s="5"/>
       <c r="Y177" s="5"/>
     </row>
-    <row r="178" spans="1:16384" ht="24.75">
+    <row r="178" spans="7:25">
       <c r="H178" s="5"/>
       <c r="J178" s="5"/>
       <c r="K178" s="5"/>
@@ -5549,11 +5897,9 @@
       <c r="X178" s="5"/>
       <c r="Y178" s="5"/>
     </row>
-    <row r="179" spans="1:16384" ht="24.75">
-      <c r="G179" s="5" t="inlineStr">
-        <is>
-          <t>Byte 0</t>
-        </is>
+    <row r="179" spans="7:25" ht="14">
+      <c r="G179" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="H179" s="5"/>
       <c r="I179" s="5"/>
@@ -5574,7 +5920,7 @@
       <c r="X179" s="5"/>
       <c r="Y179" s="5"/>
     </row>
-    <row r="180" spans="1:16384" ht="24.75">
+    <row r="180" spans="7:25">
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
       <c r="I180" s="5"/>
@@ -5595,7 +5941,7 @@
       <c r="X180" s="5"/>
       <c r="Y180" s="5"/>
     </row>
-    <row r="181" spans="1:16384" ht="24.75">
+    <row r="181" spans="7:25">
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
       <c r="I181" s="5"/>
@@ -5616,7 +5962,7 @@
       <c r="X181" s="5"/>
       <c r="Y181" s="5"/>
     </row>
-    <row r="182" spans="1:16384" ht="24.75">
+    <row r="182" spans="7:25">
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
       <c r="I182" s="5"/>
@@ -5637,7 +5983,7 @@
       <c r="X182" s="5"/>
       <c r="Y182" s="5"/>
     </row>
-    <row r="183" spans="1:16384" ht="24.75">
+    <row r="183" spans="7:25">
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
       <c r="I183" s="5"/>
@@ -5658,7 +6004,7 @@
       <c r="X183" s="5"/>
       <c r="Y183" s="5"/>
     </row>
-    <row r="184" spans="1:16384">
+    <row r="184" spans="7:25">
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
       <c r="I184" s="5"/>
@@ -5679,7 +6025,7 @@
       <c r="X184" s="5"/>
       <c r="Y184" s="5"/>
     </row>
-    <row r="185" spans="1:16384">
+    <row r="185" spans="7:25">
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
       <c r="I185" s="5"/>
@@ -5700,12 +6046,10 @@
       <c r="X185" s="5"/>
       <c r="Y185" s="5"/>
     </row>
-    <row r="186" spans="1:16384">
+    <row r="186" spans="7:25">
       <c r="G186" s="5"/>
-      <c r="H186" s="67" t="inlineStr">
-        <is>
-          <t>Assign masks by pretending it's continuous and not separated by arrays where you start at 1 again for the next byte</t>
-        </is>
+      <c r="H186" s="67" t="s">
+        <v>154</v>
       </c>
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
@@ -5725,16 +6069,12 @@
       <c r="X186" s="5"/>
       <c r="Y186" s="5"/>
     </row>
-    <row r="187" spans="1:16384">
-      <c r="G187" s="5" t="inlineStr">
-        <is>
-          <t>Byte 1</t>
-        </is>
-      </c>
-      <c r="H187" s="5" t="inlineStr">
-        <is>
-          <t>Should not be 0x01!</t>
-        </is>
+    <row r="187" spans="7:25" ht="14">
+      <c r="G187" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H187" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
@@ -5754,7 +6094,7 @@
       <c r="X187" s="5"/>
       <c r="Y187" s="5"/>
     </row>
-    <row r="188" spans="1:16384">
+    <row r="188" spans="7:25">
       <c r="G188" s="5"/>
       <c r="H188" s="5"/>
       <c r="I188" s="5"/>
@@ -5775,7 +6115,7 @@
       <c r="X188" s="5"/>
       <c r="Y188" s="5"/>
     </row>
-    <row r="189" spans="1:16384">
+    <row r="189" spans="7:25">
       <c r="G189" s="5"/>
       <c r="H189" s="5"/>
       <c r="I189" s="5"/>
@@ -5796,7 +6136,7 @@
       <c r="X189" s="5"/>
       <c r="Y189" s="5"/>
     </row>
-    <row r="190" spans="1:16384">
+    <row r="190" spans="7:25">
       <c r="G190" s="5"/>
       <c r="H190" s="5"/>
       <c r="I190" s="5"/>
@@ -5817,7 +6157,7 @@
       <c r="X190" s="5"/>
       <c r="Y190" s="5"/>
     </row>
-    <row r="191" spans="1:16384">
+    <row r="191" spans="7:25">
       <c r="G191" s="5"/>
       <c r="H191" s="5"/>
       <c r="I191" s="5"/>
@@ -5838,7 +6178,7 @@
       <c r="X191" s="5"/>
       <c r="Y191" s="5"/>
     </row>
-    <row r="192" spans="1:16384">
+    <row r="192" spans="7:25">
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
       <c r="I192" s="5"/>
@@ -5859,7 +6199,7 @@
       <c r="X192" s="5"/>
       <c r="Y192" s="5"/>
     </row>
-    <row r="193" spans="1:16384">
+    <row r="193" spans="7:25">
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
       <c r="I193" s="5"/>
@@ -5880,7 +6220,7 @@
       <c r="X193" s="5"/>
       <c r="Y193" s="5"/>
     </row>
-    <row r="194" spans="1:16384">
+    <row r="194" spans="7:25">
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
       <c r="I194" s="5"/>
@@ -5901,7 +6241,7 @@
       <c r="X194" s="5"/>
       <c r="Y194" s="5"/>
     </row>
-    <row r="195" spans="1:16384">
+    <row r="195" spans="7:25">
       <c r="G195" s="5"/>
       <c r="H195" s="5"/>
       <c r="I195" s="5"/>
@@ -5922,7 +6262,7 @@
       <c r="X195" s="5"/>
       <c r="Y195" s="5"/>
     </row>
-    <row r="196" spans="1:16384">
+    <row r="196" spans="7:25">
       <c r="G196" s="5"/>
       <c r="H196" s="5"/>
       <c r="I196" s="5"/>
@@ -5943,7 +6283,7 @@
       <c r="X196" s="5"/>
       <c r="Y196" s="5"/>
     </row>
-    <row r="197" spans="1:16384">
+    <row r="197" spans="7:25">
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
       <c r="I197" s="5"/>
@@ -5964,7 +6304,7 @@
       <c r="X197" s="5"/>
       <c r="Y197" s="5"/>
     </row>
-    <row r="198" spans="1:16384">
+    <row r="198" spans="7:25">
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
       <c r="I198" s="5"/>
@@ -5985,7 +6325,7 @@
       <c r="X198" s="5"/>
       <c r="Y198" s="5"/>
     </row>
-    <row r="199" spans="1:16384">
+    <row r="199" spans="7:25">
       <c r="G199" s="5"/>
       <c r="H199" s="5"/>
       <c r="I199" s="5"/>
@@ -6006,7 +6346,7 @@
       <c r="X199" s="5"/>
       <c r="Y199" s="5"/>
     </row>
-    <row r="200" spans="1:16384">
+    <row r="200" spans="7:25">
       <c r="G200" s="5"/>
       <c r="H200" s="5"/>
       <c r="I200" s="5"/>
@@ -6027,7 +6367,7 @@
       <c r="X200" s="5"/>
       <c r="Y200" s="5"/>
     </row>
-    <row r="201" spans="1:16384">
+    <row r="201" spans="7:25">
       <c r="G201" s="5"/>
       <c r="H201" s="5"/>
       <c r="I201" s="5"/>
@@ -6048,7 +6388,7 @@
       <c r="X201" s="5"/>
       <c r="Y201" s="5"/>
     </row>
-    <row r="202" spans="1:16384">
+    <row r="202" spans="7:25">
       <c r="G202" s="5"/>
       <c r="H202" s="5"/>
       <c r="I202" s="5"/>
@@ -6069,7 +6409,7 @@
       <c r="X202" s="5"/>
       <c r="Y202" s="5"/>
     </row>
-    <row r="203" spans="1:16384">
+    <row r="203" spans="7:25">
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
       <c r="I203" s="5"/>
@@ -6090,7 +6430,7 @@
       <c r="X203" s="5"/>
       <c r="Y203" s="5"/>
     </row>
-    <row r="204" spans="1:16384">
+    <row r="204" spans="7:25">
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
       <c r="I204" s="5"/>
@@ -6111,7 +6451,7 @@
       <c r="X204" s="5"/>
       <c r="Y204" s="5"/>
     </row>
-    <row r="205" spans="1:16384">
+    <row r="205" spans="7:25">
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
       <c r="I205" s="5"/>
@@ -6132,7 +6472,7 @@
       <c r="X205" s="5"/>
       <c r="Y205" s="5"/>
     </row>
-    <row r="206" spans="1:16384">
+    <row r="206" spans="7:25">
       <c r="G206" s="5"/>
       <c r="H206" s="5"/>
       <c r="I206" s="5"/>
@@ -6153,7 +6493,7 @@
       <c r="X206" s="5"/>
       <c r="Y206" s="5"/>
     </row>
-    <row r="207" spans="1:16384">
+    <row r="207" spans="7:25">
       <c r="G207" s="5"/>
       <c r="H207" s="5"/>
       <c r="I207" s="5"/>
@@ -6174,7 +6514,7 @@
       <c r="X207" s="5"/>
       <c r="Y207" s="5"/>
     </row>
-    <row r="208" spans="1:16384">
+    <row r="208" spans="7:25">
       <c r="G208" s="5"/>
       <c r="H208" s="5"/>
       <c r="I208" s="5"/>
@@ -6195,7 +6535,7 @@
       <c r="X208" s="5"/>
       <c r="Y208" s="5"/>
     </row>
-    <row r="209" spans="1:16384">
+    <row r="209" spans="7:25">
       <c r="G209" s="5"/>
       <c r="H209" s="5"/>
       <c r="I209" s="5"/>
@@ -6216,7 +6556,7 @@
       <c r="X209" s="5"/>
       <c r="Y209" s="5"/>
     </row>
-    <row r="210" spans="1:16384">
+    <row r="210" spans="7:25">
       <c r="G210" s="5"/>
       <c r="H210" s="5"/>
       <c r="I210" s="5"/>
@@ -6237,7 +6577,7 @@
       <c r="X210" s="5"/>
       <c r="Y210" s="5"/>
     </row>
-    <row r="211" spans="1:16384">
+    <row r="211" spans="7:25">
       <c r="G211" s="5"/>
       <c r="H211" s="5"/>
       <c r="I211" s="5"/>
@@ -6258,7 +6598,7 @@
       <c r="X211" s="5"/>
       <c r="Y211" s="5"/>
     </row>
-    <row r="212" spans="1:16384">
+    <row r="212" spans="7:25">
       <c r="G212" s="5"/>
       <c r="H212" s="5"/>
       <c r="I212" s="5"/>
@@ -6279,7 +6619,7 @@
       <c r="X212" s="5"/>
       <c r="Y212" s="5"/>
     </row>
-    <row r="213" spans="1:16384">
+    <row r="213" spans="7:25">
       <c r="G213" s="5"/>
       <c r="H213" s="5"/>
       <c r="I213" s="5"/>
@@ -6300,7 +6640,7 @@
       <c r="X213" s="5"/>
       <c r="Y213" s="5"/>
     </row>
-    <row r="214" spans="1:16384">
+    <row r="214" spans="7:25">
       <c r="G214" s="5"/>
       <c r="H214" s="5"/>
       <c r="I214" s="5"/>
@@ -6321,7 +6661,7 @@
       <c r="X214" s="5"/>
       <c r="Y214" s="5"/>
     </row>
-    <row r="215" spans="1:16384">
+    <row r="215" spans="7:25">
       <c r="G215" s="5"/>
       <c r="H215" s="5"/>
       <c r="I215" s="5"/>
@@ -6342,7 +6682,7 @@
       <c r="X215" s="5"/>
       <c r="Y215" s="5"/>
     </row>
-    <row r="216" spans="1:16384">
+    <row r="216" spans="7:25">
       <c r="G216" s="5"/>
       <c r="H216" s="5"/>
       <c r="I216" s="5"/>
@@ -6363,7 +6703,7 @@
       <c r="X216" s="5"/>
       <c r="Y216" s="5"/>
     </row>
-    <row r="217" spans="1:16384">
+    <row r="217" spans="7:25">
       <c r="G217" s="5"/>
       <c r="H217" s="5"/>
       <c r="I217" s="5"/>
@@ -6384,7 +6724,7 @@
       <c r="X217" s="5"/>
       <c r="Y217" s="5"/>
     </row>
-    <row r="218" spans="1:16384">
+    <row r="218" spans="7:25">
       <c r="G218" s="5"/>
       <c r="H218" s="5"/>
       <c r="I218" s="5"/>
@@ -6405,7 +6745,7 @@
       <c r="X218" s="5"/>
       <c r="Y218" s="5"/>
     </row>
-    <row r="219" spans="1:16384">
+    <row r="219" spans="7:25">
       <c r="G219" s="5"/>
       <c r="H219" s="5"/>
       <c r="I219" s="5"/>
@@ -6426,7 +6766,7 @@
       <c r="X219" s="5"/>
       <c r="Y219" s="5"/>
     </row>
-    <row r="220" spans="1:16384">
+    <row r="220" spans="7:25">
       <c r="G220" s="5"/>
       <c r="H220" s="5"/>
       <c r="I220" s="5"/>
@@ -6447,7 +6787,7 @@
       <c r="X220" s="5"/>
       <c r="Y220" s="5"/>
     </row>
-    <row r="221" spans="1:16384">
+    <row r="221" spans="7:25">
       <c r="G221" s="5"/>
       <c r="H221" s="5"/>
       <c r="I221" s="5"/>
@@ -6468,7 +6808,7 @@
       <c r="X221" s="5"/>
       <c r="Y221" s="5"/>
     </row>
-    <row r="222" spans="1:16384">
+    <row r="222" spans="7:25">
       <c r="G222" s="5"/>
       <c r="H222" s="5"/>
       <c r="I222" s="5"/>
@@ -6489,7 +6829,7 @@
       <c r="X222" s="5"/>
       <c r="Y222" s="5"/>
     </row>
-    <row r="223" spans="1:16384">
+    <row r="223" spans="7:25">
       <c r="G223" s="5"/>
       <c r="H223" s="5"/>
       <c r="I223" s="5"/>
@@ -6510,7 +6850,7 @@
       <c r="X223" s="5"/>
       <c r="Y223" s="5"/>
     </row>
-    <row r="224" spans="1:16384">
+    <row r="224" spans="7:25">
       <c r="G224" s="5"/>
       <c r="H224" s="5"/>
       <c r="I224" s="5"/>
@@ -6531,7 +6871,7 @@
       <c r="X224" s="5"/>
       <c r="Y224" s="5"/>
     </row>
-    <row r="225" spans="1:16384">
+    <row r="225" spans="7:25">
       <c r="G225" s="5"/>
       <c r="H225" s="5"/>
       <c r="I225" s="5"/>
@@ -6552,7 +6892,7 @@
       <c r="X225" s="5"/>
       <c r="Y225" s="5"/>
     </row>
-    <row r="226" spans="1:16384">
+    <row r="226" spans="7:25">
       <c r="G226" s="5"/>
       <c r="H226" s="5"/>
       <c r="I226" s="5"/>
@@ -6573,7 +6913,7 @@
       <c r="X226" s="5"/>
       <c r="Y226" s="5"/>
     </row>
-    <row r="227" spans="1:16384">
+    <row r="227" spans="7:25">
       <c r="G227" s="5"/>
       <c r="H227" s="5"/>
       <c r="I227" s="5"/>
@@ -6594,1085 +6934,1080 @@
       <c r="X227" s="5"/>
       <c r="Y227" s="5"/>
     </row>
-    <row r="1048443" spans="1:16384">
-      <c r="B1048443" s="0"/>
-      <c r="C1048443" s="0"/>
-      <c r="D1048443" s="0"/>
-      <c r="E1048443" s="0"/>
-      <c r="F1048443" s="0"/>
-    </row>
-    <row r="1048444" spans="1:16384">
-      <c r="A1048444" s="0"/>
-      <c r="B1048444" s="0"/>
-      <c r="C1048444" s="0"/>
-      <c r="D1048444" s="0"/>
-      <c r="E1048444" s="0"/>
-      <c r="F1048444" s="0"/>
-    </row>
-    <row r="1048445" spans="1:16384">
-      <c r="A1048445" s="0"/>
-      <c r="B1048445" s="0"/>
-      <c r="C1048445" s="0"/>
-      <c r="D1048445" s="0"/>
-      <c r="E1048445" s="0"/>
-      <c r="F1048445" s="0"/>
-    </row>
-    <row r="1048446" spans="1:16384">
-      <c r="A1048446" s="0"/>
-      <c r="B1048446" s="0"/>
-      <c r="C1048446" s="0"/>
-      <c r="D1048446" s="0"/>
-      <c r="E1048446" s="0"/>
-      <c r="F1048446" s="0"/>
-    </row>
-    <row r="1048447" spans="1:16384">
-      <c r="A1048447" s="0"/>
-      <c r="B1048447" s="0"/>
-      <c r="C1048447" s="0"/>
-      <c r="D1048447" s="0"/>
-      <c r="E1048447" s="0"/>
-      <c r="F1048447" s="0"/>
-    </row>
-    <row r="1048448" spans="1:16384">
-      <c r="A1048448" s="0"/>
-      <c r="B1048448" s="0"/>
-      <c r="C1048448" s="0"/>
-      <c r="D1048448" s="0"/>
-      <c r="E1048448" s="0"/>
-      <c r="F1048448" s="0"/>
-    </row>
-    <row r="1048449" spans="1:16384">
-      <c r="A1048449" s="0"/>
-      <c r="B1048449" s="0"/>
-      <c r="C1048449" s="0"/>
-      <c r="D1048449" s="0"/>
-      <c r="E1048449" s="0"/>
-      <c r="F1048449" s="0"/>
-    </row>
-    <row r="1048450" spans="1:16384">
-      <c r="A1048450" s="0"/>
-      <c r="B1048450" s="0"/>
-      <c r="C1048450" s="0"/>
-      <c r="D1048450" s="0"/>
-      <c r="E1048450" s="0"/>
-      <c r="F1048450" s="0"/>
-    </row>
-    <row r="1048451" spans="1:16384">
-      <c r="A1048451" s="0"/>
-      <c r="B1048451" s="0"/>
-      <c r="C1048451" s="0"/>
-      <c r="D1048451" s="0"/>
-      <c r="E1048451" s="0"/>
-      <c r="F1048451" s="0"/>
-    </row>
-    <row r="1048452" spans="1:16384">
-      <c r="A1048452" s="0"/>
-      <c r="B1048452" s="0"/>
-      <c r="C1048452" s="0"/>
-      <c r="D1048452" s="0"/>
-      <c r="E1048452" s="0"/>
-      <c r="F1048452" s="0"/>
-    </row>
-    <row r="1048453" spans="1:16384">
-      <c r="A1048453" s="0"/>
-      <c r="B1048453" s="0"/>
-      <c r="C1048453" s="0"/>
-      <c r="D1048453" s="0"/>
-      <c r="E1048453" s="0"/>
-      <c r="F1048453" s="0"/>
-    </row>
-    <row r="1048454" spans="1:16384">
-      <c r="A1048454" s="0"/>
-      <c r="B1048454" s="0"/>
-      <c r="C1048454" s="0"/>
-      <c r="D1048454" s="0"/>
-      <c r="E1048454" s="0"/>
-      <c r="F1048454" s="0"/>
-    </row>
-    <row r="1048455" spans="1:16384">
-      <c r="A1048455" s="0"/>
-      <c r="B1048455" s="0"/>
-      <c r="C1048455" s="0"/>
-      <c r="D1048455" s="0"/>
-      <c r="E1048455" s="0"/>
-      <c r="F1048455" s="0"/>
-    </row>
-    <row r="1048456" spans="1:16384">
-      <c r="A1048456" s="0"/>
-      <c r="B1048456" s="0"/>
-      <c r="C1048456" s="0"/>
-      <c r="D1048456" s="0"/>
-      <c r="E1048456" s="0"/>
-      <c r="F1048456" s="0"/>
-    </row>
-    <row r="1048457" spans="1:16384">
-      <c r="A1048457" s="0"/>
-      <c r="B1048457" s="0"/>
-      <c r="C1048457" s="0"/>
-      <c r="D1048457" s="0"/>
-      <c r="E1048457" s="0"/>
-      <c r="F1048457" s="0"/>
-    </row>
-    <row r="1048458" spans="1:16384">
-      <c r="A1048458" s="0"/>
-      <c r="B1048458" s="0"/>
-      <c r="C1048458" s="0"/>
-      <c r="D1048458" s="0"/>
-      <c r="E1048458" s="0"/>
-      <c r="F1048458" s="0"/>
-    </row>
-    <row r="1048459" spans="1:16384">
-      <c r="A1048459" s="0"/>
-      <c r="B1048459" s="0"/>
-      <c r="C1048459" s="0"/>
-      <c r="D1048459" s="0"/>
-      <c r="E1048459" s="0"/>
-      <c r="F1048459" s="0"/>
-    </row>
-    <row r="1048460" spans="1:16384">
-      <c r="A1048460" s="0"/>
-      <c r="B1048460" s="0"/>
-      <c r="C1048460" s="0"/>
-      <c r="D1048460" s="0"/>
-      <c r="E1048460" s="0"/>
-      <c r="F1048460" s="0"/>
-    </row>
-    <row r="1048461" spans="1:16384">
-      <c r="A1048461" s="0"/>
-      <c r="B1048461" s="0"/>
-      <c r="C1048461" s="0"/>
-      <c r="D1048461" s="0"/>
-      <c r="E1048461" s="0"/>
-      <c r="F1048461" s="0"/>
-    </row>
-    <row r="1048462" spans="1:16384">
-      <c r="A1048462" s="0"/>
-      <c r="B1048462" s="0"/>
-      <c r="C1048462" s="0"/>
-      <c r="D1048462" s="0"/>
-      <c r="E1048462" s="0"/>
-      <c r="F1048462" s="0"/>
-    </row>
-    <row r="1048463" spans="1:16384">
-      <c r="A1048463" s="0"/>
-      <c r="B1048463" s="0"/>
-      <c r="C1048463" s="0"/>
-      <c r="D1048463" s="0"/>
-      <c r="E1048463" s="0"/>
-      <c r="F1048463" s="0"/>
-    </row>
-    <row r="1048464" spans="1:16384">
-      <c r="A1048464" s="0"/>
-      <c r="B1048464" s="0"/>
-      <c r="C1048464" s="0"/>
-      <c r="D1048464" s="0"/>
-      <c r="E1048464" s="0"/>
-      <c r="F1048464" s="0"/>
-    </row>
-    <row r="1048465" spans="1:16384">
-      <c r="A1048465" s="0"/>
-      <c r="B1048465" s="0"/>
-      <c r="C1048465" s="0"/>
-      <c r="D1048465" s="0"/>
-      <c r="E1048465" s="0"/>
-      <c r="F1048465" s="0"/>
-    </row>
-    <row r="1048466" spans="1:16384">
-      <c r="A1048466" s="0"/>
-      <c r="B1048466" s="0"/>
-      <c r="C1048466" s="0"/>
-      <c r="D1048466" s="0"/>
-      <c r="E1048466" s="0"/>
-      <c r="F1048466" s="0"/>
-    </row>
-    <row r="1048467" spans="1:16384">
-      <c r="A1048467" s="0"/>
-      <c r="B1048467" s="0"/>
-      <c r="C1048467" s="0"/>
-      <c r="D1048467" s="0"/>
-      <c r="E1048467" s="0"/>
-      <c r="F1048467" s="0"/>
-    </row>
-    <row r="1048468" spans="1:16384">
-      <c r="A1048468" s="0"/>
-      <c r="B1048468" s="0"/>
-      <c r="C1048468" s="0"/>
-      <c r="D1048468" s="0"/>
-      <c r="E1048468" s="0"/>
-      <c r="F1048468" s="0"/>
-    </row>
-    <row r="1048469" spans="1:16384">
-      <c r="A1048469" s="0"/>
-      <c r="B1048469" s="0"/>
-      <c r="C1048469" s="0"/>
-      <c r="D1048469" s="0"/>
-      <c r="E1048469" s="0"/>
-      <c r="F1048469" s="0"/>
-    </row>
-    <row r="1048470" spans="1:16384">
-      <c r="A1048470" s="0"/>
-      <c r="B1048470" s="0"/>
-      <c r="C1048470" s="0"/>
-      <c r="D1048470" s="0"/>
-      <c r="E1048470" s="0"/>
-      <c r="F1048470" s="0"/>
-    </row>
-    <row r="1048471" spans="1:16384">
-      <c r="A1048471" s="0"/>
-      <c r="B1048471" s="0"/>
-      <c r="C1048471" s="0"/>
-      <c r="D1048471" s="0"/>
-      <c r="E1048471" s="0"/>
-      <c r="F1048471" s="0"/>
-    </row>
-    <row r="1048472" spans="1:16384">
-      <c r="A1048472" s="0"/>
-      <c r="B1048472" s="0"/>
-      <c r="C1048472" s="0"/>
-      <c r="D1048472" s="0"/>
-      <c r="E1048472" s="0"/>
-      <c r="F1048472" s="0"/>
-    </row>
-    <row r="1048473" spans="1:16384">
-      <c r="A1048473" s="0"/>
-      <c r="B1048473" s="0"/>
-      <c r="C1048473" s="0"/>
-      <c r="D1048473" s="0"/>
-      <c r="E1048473" s="0"/>
-      <c r="F1048473" s="0"/>
-    </row>
-    <row r="1048474" spans="1:16384">
-      <c r="A1048474" s="0"/>
-      <c r="B1048474" s="0"/>
-      <c r="C1048474" s="0"/>
-      <c r="D1048474" s="0"/>
-      <c r="E1048474" s="0"/>
-      <c r="F1048474" s="0"/>
-    </row>
-    <row r="1048475" spans="1:16384">
-      <c r="A1048475" s="0"/>
-      <c r="B1048475" s="0"/>
-      <c r="C1048475" s="0"/>
-      <c r="D1048475" s="0"/>
-      <c r="E1048475" s="0"/>
-      <c r="F1048475" s="0"/>
-    </row>
-    <row r="1048476" spans="1:16384">
-      <c r="A1048476" s="0"/>
-      <c r="B1048476" s="0"/>
-      <c r="C1048476" s="0"/>
-      <c r="D1048476" s="0"/>
-      <c r="E1048476" s="0"/>
-      <c r="F1048476" s="0"/>
-    </row>
-    <row r="1048477" spans="1:16384">
-      <c r="A1048477" s="0"/>
-      <c r="B1048477" s="0"/>
-      <c r="C1048477" s="0"/>
-      <c r="D1048477" s="0"/>
-      <c r="E1048477" s="0"/>
-      <c r="F1048477" s="0"/>
-    </row>
-    <row r="1048478" spans="1:16384">
-      <c r="A1048478" s="0"/>
-      <c r="B1048478" s="0"/>
-      <c r="C1048478" s="0"/>
-      <c r="D1048478" s="0"/>
-      <c r="E1048478" s="0"/>
-      <c r="F1048478" s="0"/>
-    </row>
-    <row r="1048479" spans="1:16384">
-      <c r="A1048479" s="0"/>
-      <c r="B1048479" s="0"/>
-      <c r="C1048479" s="0"/>
-      <c r="D1048479" s="0"/>
-      <c r="E1048479" s="0"/>
-      <c r="F1048479" s="0"/>
-    </row>
-    <row r="1048480" spans="1:16384">
-      <c r="A1048480" s="0"/>
-      <c r="B1048480" s="0"/>
-      <c r="C1048480" s="0"/>
-      <c r="D1048480" s="0"/>
-      <c r="E1048480" s="0"/>
-      <c r="F1048480" s="0"/>
-    </row>
-    <row r="1048481" spans="1:16384">
-      <c r="A1048481" s="0"/>
-      <c r="B1048481" s="0"/>
-      <c r="C1048481" s="0"/>
-      <c r="D1048481" s="0"/>
-      <c r="E1048481" s="0"/>
-      <c r="F1048481" s="0"/>
-    </row>
-    <row r="1048482" spans="1:16384">
-      <c r="A1048482" s="0"/>
-      <c r="B1048482" s="0"/>
-      <c r="C1048482" s="0"/>
-      <c r="D1048482" s="0"/>
-      <c r="E1048482" s="0"/>
-      <c r="F1048482" s="0"/>
-    </row>
-    <row r="1048483" spans="1:16384">
-      <c r="A1048483" s="0"/>
-      <c r="B1048483" s="0"/>
-      <c r="C1048483" s="0"/>
-      <c r="D1048483" s="0"/>
-      <c r="E1048483" s="0"/>
-      <c r="F1048483" s="0"/>
-    </row>
-    <row r="1048484" spans="1:16384">
-      <c r="A1048484" s="0"/>
-      <c r="B1048484" s="0"/>
-      <c r="C1048484" s="0"/>
-      <c r="D1048484" s="0"/>
-      <c r="E1048484" s="0"/>
-      <c r="F1048484" s="0"/>
-    </row>
-    <row r="1048485" spans="1:16384">
-      <c r="A1048485" s="0"/>
-      <c r="B1048485" s="0"/>
-      <c r="C1048485" s="0"/>
-      <c r="D1048485" s="0"/>
-      <c r="E1048485" s="0"/>
-      <c r="F1048485" s="0"/>
-    </row>
-    <row r="1048486" spans="1:16384">
-      <c r="A1048486" s="0"/>
-      <c r="B1048486" s="0"/>
-      <c r="C1048486" s="0"/>
-      <c r="D1048486" s="0"/>
-      <c r="E1048486" s="0"/>
-      <c r="F1048486" s="0"/>
-    </row>
-    <row r="1048487" spans="1:16384">
-      <c r="A1048487" s="0"/>
-      <c r="B1048487" s="0"/>
-      <c r="C1048487" s="0"/>
-      <c r="D1048487" s="0"/>
-      <c r="E1048487" s="0"/>
-      <c r="F1048487" s="0"/>
-    </row>
-    <row r="1048488" spans="1:16384">
-      <c r="A1048488" s="0"/>
-      <c r="B1048488" s="0"/>
-      <c r="C1048488" s="0"/>
-      <c r="D1048488" s="0"/>
-      <c r="E1048488" s="0"/>
-      <c r="F1048488" s="0"/>
-    </row>
-    <row r="1048489" spans="1:16384">
-      <c r="A1048489" s="0"/>
-      <c r="B1048489" s="0"/>
-      <c r="C1048489" s="0"/>
-      <c r="D1048489" s="0"/>
-      <c r="E1048489" s="0"/>
-      <c r="F1048489" s="0"/>
-    </row>
-    <row r="1048490" spans="1:16384">
-      <c r="A1048490" s="0"/>
-      <c r="B1048490" s="0"/>
-      <c r="C1048490" s="0"/>
-      <c r="D1048490" s="0"/>
-      <c r="E1048490" s="0"/>
-      <c r="F1048490" s="0"/>
-    </row>
-    <row r="1048491" spans="1:16384">
-      <c r="A1048491" s="0"/>
-      <c r="B1048491" s="0"/>
-      <c r="C1048491" s="0"/>
-      <c r="D1048491" s="0"/>
-      <c r="E1048491" s="0"/>
-      <c r="F1048491" s="0"/>
-    </row>
-    <row r="1048492" spans="1:16384">
-      <c r="A1048492" s="0"/>
-      <c r="B1048492" s="0"/>
-      <c r="C1048492" s="0"/>
-      <c r="D1048492" s="0"/>
-      <c r="E1048492" s="0"/>
-      <c r="F1048492" s="0"/>
-    </row>
-    <row r="1048493" spans="1:16384">
-      <c r="A1048493" s="0"/>
-      <c r="B1048493" s="0"/>
-      <c r="C1048493" s="0"/>
-      <c r="D1048493" s="0"/>
-      <c r="E1048493" s="0"/>
-      <c r="F1048493" s="0"/>
-    </row>
-    <row r="1048494" spans="1:16384">
-      <c r="A1048494" s="0"/>
-      <c r="B1048494" s="0"/>
-      <c r="C1048494" s="0"/>
-      <c r="D1048494" s="0"/>
-      <c r="E1048494" s="0"/>
-      <c r="F1048494" s="0"/>
-    </row>
-    <row r="1048495" spans="1:16384">
-      <c r="A1048495" s="0"/>
-      <c r="B1048495" s="0"/>
-      <c r="C1048495" s="0"/>
-      <c r="D1048495" s="0"/>
-      <c r="E1048495" s="0"/>
-      <c r="F1048495" s="0"/>
-    </row>
-    <row r="1048496" spans="1:16384">
-      <c r="A1048496" s="0"/>
-      <c r="B1048496" s="0"/>
-      <c r="C1048496" s="0"/>
-      <c r="D1048496" s="0"/>
-      <c r="E1048496" s="0"/>
-      <c r="F1048496" s="0"/>
-    </row>
-    <row r="1048497" spans="1:16384">
-      <c r="A1048497" s="0"/>
-      <c r="B1048497" s="0"/>
-      <c r="C1048497" s="0"/>
-      <c r="D1048497" s="0"/>
-      <c r="E1048497" s="0"/>
-      <c r="F1048497" s="0"/>
-    </row>
-    <row r="1048498" spans="1:16384">
-      <c r="A1048498" s="0"/>
-      <c r="B1048498" s="0"/>
-      <c r="C1048498" s="0"/>
-      <c r="D1048498" s="0"/>
-      <c r="E1048498" s="0"/>
-      <c r="F1048498" s="0"/>
-    </row>
-    <row r="1048499" spans="1:16384">
-      <c r="A1048499" s="0"/>
-      <c r="B1048499" s="0"/>
-      <c r="C1048499" s="0"/>
-      <c r="D1048499" s="0"/>
-      <c r="E1048499" s="0"/>
-      <c r="F1048499" s="0"/>
-    </row>
-    <row r="1048500" spans="1:16384">
-      <c r="A1048500" s="0"/>
-      <c r="B1048500" s="0"/>
-      <c r="C1048500" s="0"/>
-      <c r="D1048500" s="0"/>
-      <c r="E1048500" s="0"/>
-      <c r="F1048500" s="0"/>
-    </row>
-    <row r="1048501" spans="1:16384">
-      <c r="A1048501" s="0"/>
-      <c r="B1048501" s="0"/>
-      <c r="C1048501" s="0"/>
-      <c r="D1048501" s="0"/>
-      <c r="E1048501" s="0"/>
-      <c r="F1048501" s="0"/>
-    </row>
-    <row r="1048502" spans="1:16384">
-      <c r="A1048502" s="0"/>
-      <c r="B1048502" s="0"/>
-      <c r="C1048502" s="0"/>
-      <c r="D1048502" s="0"/>
-      <c r="E1048502" s="0"/>
-      <c r="F1048502" s="0"/>
-    </row>
-    <row r="1048503" spans="1:16384">
-      <c r="A1048503" s="0"/>
-      <c r="B1048503" s="0"/>
-      <c r="C1048503" s="0"/>
-      <c r="D1048503" s="0"/>
-      <c r="E1048503" s="0"/>
-      <c r="F1048503" s="0"/>
-    </row>
-    <row r="1048504" spans="1:16384">
-      <c r="A1048504" s="0"/>
-      <c r="B1048504" s="0"/>
-      <c r="C1048504" s="0"/>
-      <c r="D1048504" s="0"/>
-      <c r="E1048504" s="0"/>
-      <c r="F1048504" s="0"/>
-    </row>
-    <row r="1048505" spans="1:16384">
-      <c r="A1048505" s="0"/>
-      <c r="B1048505" s="0"/>
-      <c r="C1048505" s="0"/>
-      <c r="D1048505" s="0"/>
-      <c r="E1048505" s="0"/>
-      <c r="F1048505" s="0"/>
-    </row>
-    <row r="1048506" spans="1:16384">
-      <c r="A1048506" s="0"/>
-      <c r="B1048506" s="0"/>
-      <c r="C1048506" s="0"/>
-      <c r="D1048506" s="0"/>
-      <c r="E1048506" s="0"/>
-      <c r="F1048506" s="0"/>
-    </row>
-    <row r="1048507" spans="1:16384">
-      <c r="A1048507" s="0"/>
-      <c r="B1048507" s="0"/>
-      <c r="C1048507" s="0"/>
-      <c r="D1048507" s="0"/>
-      <c r="E1048507" s="0"/>
-      <c r="F1048507" s="0"/>
-    </row>
-    <row r="1048508" spans="1:16384">
-      <c r="A1048508" s="0"/>
-      <c r="B1048508" s="0"/>
-      <c r="C1048508" s="0"/>
-      <c r="D1048508" s="0"/>
-      <c r="E1048508" s="0"/>
-      <c r="F1048508" s="0"/>
-    </row>
-    <row r="1048509" spans="1:16384">
-      <c r="A1048509" s="0"/>
-      <c r="B1048509" s="0"/>
-      <c r="C1048509" s="0"/>
-      <c r="D1048509" s="0"/>
-      <c r="E1048509" s="0"/>
-      <c r="F1048509" s="0"/>
-    </row>
-    <row r="1048510" spans="1:16384">
-      <c r="A1048510" s="0"/>
-      <c r="B1048510" s="0"/>
-      <c r="C1048510" s="0"/>
-      <c r="D1048510" s="0"/>
-      <c r="E1048510" s="0"/>
-      <c r="F1048510" s="0"/>
-    </row>
-    <row r="1048511" spans="1:16384">
-      <c r="A1048511" s="0"/>
-      <c r="B1048511" s="0"/>
-      <c r="C1048511" s="0"/>
-      <c r="D1048511" s="0"/>
-      <c r="E1048511" s="0"/>
-      <c r="F1048511" s="0"/>
-    </row>
-    <row r="1048512" spans="1:16384">
-      <c r="A1048512" s="0"/>
-      <c r="B1048512" s="0"/>
-      <c r="C1048512" s="0"/>
-      <c r="D1048512" s="0"/>
-      <c r="E1048512" s="0"/>
-      <c r="F1048512" s="0"/>
-    </row>
-    <row r="1048513" spans="1:16384">
-      <c r="A1048513" s="0"/>
-      <c r="B1048513" s="0"/>
-      <c r="C1048513" s="0"/>
-      <c r="D1048513" s="0"/>
-      <c r="E1048513" s="0"/>
-      <c r="F1048513" s="0"/>
-    </row>
-    <row r="1048514" spans="1:16384">
-      <c r="A1048514" s="0"/>
-      <c r="B1048514" s="0"/>
-      <c r="C1048514" s="0"/>
-      <c r="D1048514" s="0"/>
-      <c r="E1048514" s="0"/>
-      <c r="F1048514" s="0"/>
-    </row>
-    <row r="1048515" spans="1:16384">
-      <c r="A1048515" s="0"/>
-      <c r="B1048515" s="0"/>
-      <c r="C1048515" s="0"/>
-      <c r="D1048515" s="0"/>
-      <c r="E1048515" s="0"/>
-      <c r="F1048515" s="0"/>
-    </row>
-    <row r="1048516" spans="1:16384">
-      <c r="A1048516" s="0"/>
-      <c r="B1048516" s="0"/>
-      <c r="C1048516" s="0"/>
-      <c r="D1048516" s="0"/>
-      <c r="E1048516" s="0"/>
-      <c r="F1048516" s="0"/>
-    </row>
-    <row r="1048517" spans="1:16384">
-      <c r="A1048517" s="0"/>
-      <c r="B1048517" s="0"/>
-      <c r="C1048517" s="0"/>
-      <c r="D1048517" s="0"/>
-      <c r="E1048517" s="0"/>
-      <c r="F1048517" s="0"/>
-    </row>
-    <row r="1048518" spans="1:16384">
-      <c r="A1048518" s="0"/>
-      <c r="B1048518" s="0"/>
-      <c r="C1048518" s="0"/>
-      <c r="D1048518" s="0"/>
-      <c r="E1048518" s="0"/>
-      <c r="F1048518" s="0"/>
-    </row>
-    <row r="1048519" spans="1:16384">
-      <c r="A1048519" s="0"/>
-      <c r="B1048519" s="0"/>
-      <c r="C1048519" s="0"/>
-      <c r="D1048519" s="0"/>
-      <c r="E1048519" s="0"/>
-      <c r="F1048519" s="0"/>
-    </row>
-    <row r="1048520" spans="1:16384">
-      <c r="A1048520" s="0"/>
-      <c r="B1048520" s="0"/>
-      <c r="C1048520" s="0"/>
-      <c r="D1048520" s="0"/>
-      <c r="E1048520" s="0"/>
-      <c r="F1048520" s="0"/>
-    </row>
-    <row r="1048521" spans="1:16384">
-      <c r="A1048521" s="0"/>
-      <c r="B1048521" s="0"/>
-      <c r="C1048521" s="0"/>
-      <c r="D1048521" s="0"/>
-      <c r="E1048521" s="0"/>
-      <c r="F1048521" s="0"/>
-    </row>
-    <row r="1048522" spans="1:16384">
-      <c r="A1048522" s="0"/>
-      <c r="B1048522" s="0"/>
-      <c r="C1048522" s="0"/>
-      <c r="D1048522" s="0"/>
-      <c r="E1048522" s="0"/>
-      <c r="F1048522" s="0"/>
-    </row>
-    <row r="1048523" spans="1:16384">
-      <c r="A1048523" s="0"/>
-      <c r="B1048523" s="0"/>
-      <c r="C1048523" s="0"/>
-      <c r="D1048523" s="0"/>
-      <c r="E1048523" s="0"/>
-      <c r="F1048523" s="0"/>
-    </row>
-    <row r="1048524" spans="1:16384">
-      <c r="A1048524" s="0"/>
-      <c r="B1048524" s="0"/>
-      <c r="C1048524" s="0"/>
-      <c r="D1048524" s="0"/>
-      <c r="E1048524" s="0"/>
-      <c r="F1048524" s="0"/>
-    </row>
-    <row r="1048525" spans="1:16384">
-      <c r="A1048525" s="0"/>
-      <c r="B1048525" s="0"/>
-      <c r="C1048525" s="0"/>
-      <c r="D1048525" s="0"/>
-      <c r="E1048525" s="0"/>
-      <c r="F1048525" s="0"/>
-    </row>
-    <row r="1048526" spans="1:16384">
-      <c r="A1048526" s="0"/>
-      <c r="B1048526" s="0"/>
-      <c r="C1048526" s="0"/>
-      <c r="D1048526" s="0"/>
-      <c r="E1048526" s="0"/>
-      <c r="F1048526" s="0"/>
-    </row>
-    <row r="1048527" spans="1:16384">
-      <c r="A1048527" s="0"/>
-      <c r="B1048527" s="0"/>
-      <c r="C1048527" s="0"/>
-      <c r="D1048527" s="0"/>
-      <c r="E1048527" s="0"/>
-      <c r="F1048527" s="0"/>
-    </row>
-    <row r="1048528" spans="1:16384">
-      <c r="A1048528" s="0"/>
-      <c r="B1048528" s="0"/>
-      <c r="C1048528" s="0"/>
-      <c r="D1048528" s="0"/>
-      <c r="E1048528" s="0"/>
-      <c r="F1048528" s="0"/>
-    </row>
-    <row r="1048529" spans="1:16384">
-      <c r="A1048529" s="0"/>
-      <c r="B1048529" s="0"/>
-      <c r="C1048529" s="0"/>
-      <c r="D1048529" s="0"/>
-      <c r="E1048529" s="0"/>
-      <c r="F1048529" s="0"/>
-    </row>
-    <row r="1048530" spans="1:16384">
-      <c r="A1048530" s="0"/>
-      <c r="B1048530" s="0"/>
-      <c r="C1048530" s="0"/>
-      <c r="D1048530" s="0"/>
-      <c r="E1048530" s="0"/>
-      <c r="F1048530" s="0"/>
-    </row>
-    <row r="1048531" spans="1:16384">
-      <c r="A1048531" s="0"/>
-      <c r="B1048531" s="0"/>
-      <c r="C1048531" s="0"/>
-      <c r="D1048531" s="0"/>
-      <c r="E1048531" s="0"/>
-      <c r="F1048531" s="0"/>
-    </row>
-    <row r="1048532" spans="1:16384">
-      <c r="A1048532" s="0"/>
-      <c r="B1048532" s="0"/>
-      <c r="C1048532" s="0"/>
-      <c r="D1048532" s="0"/>
-      <c r="E1048532" s="0"/>
-      <c r="F1048532" s="0"/>
-    </row>
-    <row r="1048533" spans="1:16384">
-      <c r="A1048533" s="0"/>
-      <c r="B1048533" s="0"/>
-      <c r="C1048533" s="0"/>
-      <c r="D1048533" s="0"/>
-      <c r="E1048533" s="0"/>
-      <c r="F1048533" s="0"/>
-    </row>
-    <row r="1048534" spans="1:16384">
-      <c r="A1048534" s="0"/>
-      <c r="B1048534" s="0"/>
-      <c r="C1048534" s="0"/>
-      <c r="D1048534" s="0"/>
-      <c r="E1048534" s="0"/>
-      <c r="F1048534" s="0"/>
-    </row>
-    <row r="1048535" spans="1:16384">
-      <c r="A1048535" s="0"/>
-      <c r="B1048535" s="0"/>
-      <c r="C1048535" s="0"/>
-      <c r="D1048535" s="0"/>
-      <c r="E1048535" s="0"/>
-      <c r="F1048535" s="0"/>
-    </row>
-    <row r="1048536" spans="1:16384">
-      <c r="A1048536" s="0"/>
-      <c r="B1048536" s="0"/>
-      <c r="C1048536" s="0"/>
-      <c r="D1048536" s="0"/>
-      <c r="E1048536" s="0"/>
-      <c r="F1048536" s="0"/>
-    </row>
-    <row r="1048537" spans="1:16384">
-      <c r="A1048537" s="0"/>
-      <c r="B1048537" s="0"/>
-      <c r="C1048537" s="0"/>
-      <c r="D1048537" s="0"/>
-      <c r="E1048537" s="0"/>
-      <c r="F1048537" s="0"/>
-    </row>
-    <row r="1048538" spans="1:16384">
-      <c r="A1048538" s="0"/>
-      <c r="B1048538" s="0"/>
-      <c r="C1048538" s="0"/>
-      <c r="D1048538" s="0"/>
-      <c r="E1048538" s="0"/>
-      <c r="F1048538" s="0"/>
-    </row>
-    <row r="1048539" spans="1:16384">
-      <c r="A1048539" s="0"/>
-      <c r="B1048539" s="0"/>
-      <c r="C1048539" s="0"/>
-      <c r="D1048539" s="0"/>
-      <c r="E1048539" s="0"/>
-      <c r="F1048539" s="0"/>
-    </row>
-    <row r="1048540" spans="1:16384">
-      <c r="A1048540" s="0"/>
-      <c r="B1048540" s="0"/>
-      <c r="C1048540" s="0"/>
-      <c r="D1048540" s="0"/>
-      <c r="E1048540" s="0"/>
-      <c r="F1048540" s="0"/>
-    </row>
-    <row r="1048541" spans="1:16384">
-      <c r="A1048541" s="0"/>
-      <c r="B1048541" s="0"/>
-      <c r="C1048541" s="0"/>
-      <c r="D1048541" s="0"/>
-      <c r="E1048541" s="0"/>
-      <c r="F1048541" s="0"/>
-    </row>
-    <row r="1048542" spans="1:16384">
-      <c r="A1048542" s="0"/>
-      <c r="B1048542" s="0"/>
-      <c r="C1048542" s="0"/>
-      <c r="D1048542" s="0"/>
-      <c r="E1048542" s="0"/>
-      <c r="F1048542" s="0"/>
-    </row>
-    <row r="1048543" spans="1:16384">
-      <c r="A1048543" s="0"/>
-      <c r="B1048543" s="0"/>
-      <c r="C1048543" s="0"/>
-      <c r="D1048543" s="0"/>
-      <c r="E1048543" s="0"/>
-      <c r="F1048543" s="0"/>
-    </row>
-    <row r="1048544" spans="1:16384">
-      <c r="A1048544" s="0"/>
-      <c r="B1048544" s="0"/>
-      <c r="C1048544" s="0"/>
-      <c r="D1048544" s="0"/>
-      <c r="E1048544" s="0"/>
-      <c r="F1048544" s="0"/>
-    </row>
-    <row r="1048545" spans="1:16384">
-      <c r="A1048545" s="0"/>
-      <c r="B1048545" s="0"/>
-      <c r="C1048545" s="0"/>
-      <c r="D1048545" s="0"/>
-      <c r="E1048545" s="0"/>
-      <c r="F1048545" s="0"/>
-    </row>
-    <row r="1048546" spans="1:16384">
-      <c r="A1048546" s="0"/>
-      <c r="B1048546" s="0"/>
-      <c r="C1048546" s="0"/>
-      <c r="D1048546" s="0"/>
-      <c r="E1048546" s="0"/>
-      <c r="F1048546" s="0"/>
-    </row>
-    <row r="1048547" spans="1:16384">
-      <c r="A1048547" s="0"/>
-      <c r="B1048547" s="0"/>
-      <c r="C1048547" s="0"/>
-      <c r="D1048547" s="0"/>
-      <c r="E1048547" s="0"/>
-      <c r="F1048547" s="0"/>
-    </row>
-    <row r="1048548" spans="1:16384">
-      <c r="A1048548" s="0"/>
-      <c r="B1048548" s="0"/>
-      <c r="C1048548" s="0"/>
-      <c r="D1048548" s="0"/>
-      <c r="E1048548" s="0"/>
-      <c r="F1048548" s="0"/>
-    </row>
-    <row r="1048549" spans="1:16384">
-      <c r="A1048549" s="0"/>
-      <c r="B1048549" s="0"/>
-      <c r="C1048549" s="0"/>
-      <c r="D1048549" s="0"/>
-      <c r="E1048549" s="0"/>
-      <c r="F1048549" s="0"/>
-    </row>
-    <row r="1048550" spans="1:16384">
-      <c r="A1048550" s="0"/>
-      <c r="B1048550" s="0"/>
-      <c r="C1048550" s="0"/>
-      <c r="D1048550" s="0"/>
-      <c r="E1048550" s="0"/>
-      <c r="F1048550" s="0"/>
-    </row>
-    <row r="1048551" spans="1:16384">
-      <c r="A1048551" s="0"/>
-      <c r="B1048551" s="0"/>
-      <c r="C1048551" s="0"/>
-      <c r="D1048551" s="0"/>
-      <c r="E1048551" s="0"/>
-      <c r="F1048551" s="0"/>
-    </row>
-    <row r="1048552" spans="1:16384">
-      <c r="A1048552" s="0"/>
-      <c r="B1048552" s="0"/>
-      <c r="C1048552" s="0"/>
-      <c r="D1048552" s="0"/>
-      <c r="E1048552" s="0"/>
-      <c r="F1048552" s="0"/>
-    </row>
-    <row r="1048553" spans="1:16384">
-      <c r="A1048553" s="0"/>
-      <c r="B1048553" s="0"/>
-      <c r="C1048553" s="0"/>
-      <c r="D1048553" s="0"/>
-      <c r="E1048553" s="0"/>
-      <c r="F1048553" s="0"/>
-    </row>
-    <row r="1048554" spans="1:16384">
-      <c r="A1048554" s="0"/>
-      <c r="B1048554" s="0"/>
-      <c r="C1048554" s="0"/>
-      <c r="D1048554" s="0"/>
-      <c r="E1048554" s="0"/>
-      <c r="F1048554" s="0"/>
-    </row>
-    <row r="1048555" spans="1:16384">
-      <c r="A1048555" s="0"/>
-      <c r="B1048555" s="0"/>
-      <c r="C1048555" s="0"/>
-      <c r="D1048555" s="0"/>
-      <c r="E1048555" s="0"/>
-      <c r="F1048555" s="0"/>
-    </row>
-    <row r="1048556" spans="1:16384">
-      <c r="A1048556" s="0"/>
-      <c r="B1048556" s="0"/>
-      <c r="C1048556" s="0"/>
-      <c r="D1048556" s="0"/>
-      <c r="E1048556" s="0"/>
-      <c r="F1048556" s="0"/>
-    </row>
-    <row r="1048557" spans="1:16384">
-      <c r="A1048557" s="0"/>
-      <c r="B1048557" s="0"/>
-      <c r="C1048557" s="0"/>
-      <c r="D1048557" s="0"/>
-      <c r="E1048557" s="0"/>
-      <c r="F1048557" s="0"/>
-    </row>
-    <row r="1048558" spans="1:16384">
-      <c r="A1048558" s="0"/>
-      <c r="B1048558" s="0"/>
-      <c r="C1048558" s="0"/>
-      <c r="D1048558" s="0"/>
-      <c r="E1048558" s="0"/>
-      <c r="F1048558" s="0"/>
-    </row>
-    <row r="1048559" spans="1:16384">
-      <c r="A1048559" s="0"/>
-      <c r="B1048559" s="0"/>
-      <c r="C1048559" s="0"/>
-      <c r="D1048559" s="0"/>
-      <c r="E1048559" s="0"/>
-      <c r="F1048559" s="0"/>
-    </row>
-    <row r="1048560" spans="1:16384">
-      <c r="A1048560" s="0"/>
-      <c r="B1048560" s="0"/>
-      <c r="C1048560" s="0"/>
-      <c r="D1048560" s="0"/>
-      <c r="E1048560" s="0"/>
-      <c r="F1048560" s="0"/>
-    </row>
-    <row r="1048561" spans="1:16384">
-      <c r="A1048561" s="0"/>
-      <c r="B1048561" s="0"/>
-      <c r="C1048561" s="0"/>
-      <c r="D1048561" s="0"/>
-      <c r="E1048561" s="0"/>
-      <c r="F1048561" s="0"/>
-    </row>
-    <row r="1048562" spans="1:16384">
-      <c r="A1048562" s="0"/>
-      <c r="B1048562" s="0"/>
-      <c r="C1048562" s="0"/>
-      <c r="D1048562" s="0"/>
-      <c r="E1048562" s="0"/>
-      <c r="F1048562" s="0"/>
-    </row>
-    <row r="1048563" spans="1:16384">
-      <c r="A1048563" s="0"/>
-      <c r="B1048563" s="0"/>
-      <c r="C1048563" s="0"/>
-      <c r="D1048563" s="0"/>
-      <c r="E1048563" s="0"/>
-      <c r="F1048563" s="0"/>
-    </row>
-    <row r="1048564" spans="1:16384">
-      <c r="A1048564" s="0"/>
-      <c r="B1048564" s="0"/>
-      <c r="C1048564" s="0"/>
-      <c r="D1048564" s="0"/>
-      <c r="E1048564" s="0"/>
-      <c r="F1048564" s="0"/>
-    </row>
-    <row r="1048565" spans="1:16384">
-      <c r="A1048565" s="0"/>
-      <c r="B1048565" s="0"/>
-      <c r="C1048565" s="0"/>
-      <c r="D1048565" s="0"/>
-      <c r="E1048565" s="0"/>
-      <c r="F1048565" s="0"/>
-    </row>
-    <row r="1048566" spans="1:16384">
-      <c r="A1048566" s="0"/>
-      <c r="B1048566" s="0"/>
-      <c r="C1048566" s="0"/>
-      <c r="D1048566" s="0"/>
-      <c r="E1048566" s="0"/>
-      <c r="F1048566" s="0"/>
-    </row>
-    <row r="1048567" spans="1:16384">
-      <c r="A1048567" s="0"/>
-      <c r="B1048567" s="0"/>
-      <c r="C1048567" s="0"/>
-      <c r="D1048567" s="0"/>
-      <c r="E1048567" s="0"/>
-      <c r="F1048567" s="0"/>
-    </row>
-    <row r="1048568" spans="1:16384">
-      <c r="A1048568" s="0"/>
-      <c r="B1048568" s="0"/>
-      <c r="C1048568" s="0"/>
-      <c r="D1048568" s="0"/>
-      <c r="E1048568" s="0"/>
-      <c r="F1048568" s="0"/>
-    </row>
-    <row r="1048569" spans="1:16384">
-      <c r="A1048569" s="0"/>
-      <c r="B1048569" s="0"/>
-      <c r="C1048569" s="0"/>
-      <c r="D1048569" s="0"/>
-      <c r="E1048569" s="0"/>
-      <c r="F1048569" s="0"/>
-    </row>
-    <row r="1048570" spans="1:16384">
-      <c r="A1048570" s="0"/>
-      <c r="B1048570" s="0"/>
-      <c r="C1048570" s="0"/>
-      <c r="D1048570" s="0"/>
-      <c r="E1048570" s="0"/>
-      <c r="F1048570" s="0"/>
-    </row>
-    <row r="1048571" spans="1:16384">
-      <c r="A1048571" s="0"/>
-      <c r="B1048571" s="0"/>
-      <c r="C1048571" s="0"/>
-      <c r="D1048571" s="0"/>
-      <c r="E1048571" s="0"/>
-      <c r="F1048571" s="0"/>
-    </row>
-    <row r="1048572" spans="1:16384">
-      <c r="A1048572" s="0"/>
-      <c r="B1048572" s="0"/>
-      <c r="C1048572" s="0"/>
-      <c r="D1048572" s="0"/>
-      <c r="E1048572" s="0"/>
-      <c r="F1048572" s="0"/>
-    </row>
-    <row r="1048573" spans="1:16384">
-      <c r="A1048573" s="0"/>
-      <c r="B1048573" s="0"/>
-      <c r="C1048573" s="0"/>
-      <c r="D1048573" s="0"/>
-      <c r="E1048573" s="0"/>
-      <c r="F1048573" s="0"/>
-    </row>
-    <row r="1048574" spans="1:16384">
-      <c r="A1048574" s="0"/>
-      <c r="B1048574" s="0"/>
-      <c r="C1048574" s="0"/>
-      <c r="D1048574" s="0"/>
-      <c r="E1048574" s="0"/>
-      <c r="F1048574" s="0"/>
-    </row>
-    <row r="1048575" spans="1:16384">
-      <c r="A1048575" s="0"/>
-      <c r="B1048575" s="0"/>
-      <c r="C1048575" s="0"/>
-      <c r="D1048575" s="0"/>
-      <c r="E1048575" s="0"/>
-      <c r="F1048575" s="0"/>
-    </row>
-    <row r="1048576" spans="1:16384">
-      <c r="A1048576" s="0"/>
-      <c r="B1048576" s="0"/>
-      <c r="C1048576" s="0"/>
-      <c r="D1048576" s="0"/>
-      <c r="E1048576" s="0"/>
-      <c r="F1048576" s="0"/>
+    <row r="1048443" spans="1:6">
+      <c r="B1048443"/>
+      <c r="C1048443"/>
+      <c r="D1048443"/>
+      <c r="E1048443"/>
+      <c r="F1048443"/>
+    </row>
+    <row r="1048444" spans="1:6">
+      <c r="A1048444"/>
+      <c r="B1048444"/>
+      <c r="C1048444"/>
+      <c r="D1048444"/>
+      <c r="E1048444"/>
+      <c r="F1048444"/>
+    </row>
+    <row r="1048445" spans="1:6">
+      <c r="A1048445"/>
+      <c r="B1048445"/>
+      <c r="C1048445"/>
+      <c r="D1048445"/>
+      <c r="E1048445"/>
+      <c r="F1048445"/>
+    </row>
+    <row r="1048446" spans="1:6">
+      <c r="A1048446"/>
+      <c r="B1048446"/>
+      <c r="C1048446"/>
+      <c r="D1048446"/>
+      <c r="E1048446"/>
+      <c r="F1048446"/>
+    </row>
+    <row r="1048447" spans="1:6">
+      <c r="A1048447"/>
+      <c r="B1048447"/>
+      <c r="C1048447"/>
+      <c r="D1048447"/>
+      <c r="E1048447"/>
+      <c r="F1048447"/>
+    </row>
+    <row r="1048448" spans="1:6">
+      <c r="A1048448"/>
+      <c r="B1048448"/>
+      <c r="C1048448"/>
+      <c r="D1048448"/>
+      <c r="E1048448"/>
+      <c r="F1048448"/>
+    </row>
+    <row r="1048449" spans="1:6">
+      <c r="A1048449"/>
+      <c r="B1048449"/>
+      <c r="C1048449"/>
+      <c r="D1048449"/>
+      <c r="E1048449"/>
+      <c r="F1048449"/>
+    </row>
+    <row r="1048450" spans="1:6">
+      <c r="A1048450"/>
+      <c r="B1048450"/>
+      <c r="C1048450"/>
+      <c r="D1048450"/>
+      <c r="E1048450"/>
+      <c r="F1048450"/>
+    </row>
+    <row r="1048451" spans="1:6">
+      <c r="A1048451"/>
+      <c r="B1048451"/>
+      <c r="C1048451"/>
+      <c r="D1048451"/>
+      <c r="E1048451"/>
+      <c r="F1048451"/>
+    </row>
+    <row r="1048452" spans="1:6">
+      <c r="A1048452"/>
+      <c r="B1048452"/>
+      <c r="C1048452"/>
+      <c r="D1048452"/>
+      <c r="E1048452"/>
+      <c r="F1048452"/>
+    </row>
+    <row r="1048453" spans="1:6">
+      <c r="A1048453"/>
+      <c r="B1048453"/>
+      <c r="C1048453"/>
+      <c r="D1048453"/>
+      <c r="E1048453"/>
+      <c r="F1048453"/>
+    </row>
+    <row r="1048454" spans="1:6">
+      <c r="A1048454"/>
+      <c r="B1048454"/>
+      <c r="C1048454"/>
+      <c r="D1048454"/>
+      <c r="E1048454"/>
+      <c r="F1048454"/>
+    </row>
+    <row r="1048455" spans="1:6">
+      <c r="A1048455"/>
+      <c r="B1048455"/>
+      <c r="C1048455"/>
+      <c r="D1048455"/>
+      <c r="E1048455"/>
+      <c r="F1048455"/>
+    </row>
+    <row r="1048456" spans="1:6">
+      <c r="A1048456"/>
+      <c r="B1048456"/>
+      <c r="C1048456"/>
+      <c r="D1048456"/>
+      <c r="E1048456"/>
+      <c r="F1048456"/>
+    </row>
+    <row r="1048457" spans="1:6">
+      <c r="A1048457"/>
+      <c r="B1048457"/>
+      <c r="C1048457"/>
+      <c r="D1048457"/>
+      <c r="E1048457"/>
+      <c r="F1048457"/>
+    </row>
+    <row r="1048458" spans="1:6">
+      <c r="A1048458"/>
+      <c r="B1048458"/>
+      <c r="C1048458"/>
+      <c r="D1048458"/>
+      <c r="E1048458"/>
+      <c r="F1048458"/>
+    </row>
+    <row r="1048459" spans="1:6">
+      <c r="A1048459"/>
+      <c r="B1048459"/>
+      <c r="C1048459"/>
+      <c r="D1048459"/>
+      <c r="E1048459"/>
+      <c r="F1048459"/>
+    </row>
+    <row r="1048460" spans="1:6">
+      <c r="A1048460"/>
+      <c r="B1048460"/>
+      <c r="C1048460"/>
+      <c r="D1048460"/>
+      <c r="E1048460"/>
+      <c r="F1048460"/>
+    </row>
+    <row r="1048461" spans="1:6">
+      <c r="A1048461"/>
+      <c r="B1048461"/>
+      <c r="C1048461"/>
+      <c r="D1048461"/>
+      <c r="E1048461"/>
+      <c r="F1048461"/>
+    </row>
+    <row r="1048462" spans="1:6">
+      <c r="A1048462"/>
+      <c r="B1048462"/>
+      <c r="C1048462"/>
+      <c r="D1048462"/>
+      <c r="E1048462"/>
+      <c r="F1048462"/>
+    </row>
+    <row r="1048463" spans="1:6">
+      <c r="A1048463"/>
+      <c r="B1048463"/>
+      <c r="C1048463"/>
+      <c r="D1048463"/>
+      <c r="E1048463"/>
+      <c r="F1048463"/>
+    </row>
+    <row r="1048464" spans="1:6">
+      <c r="A1048464"/>
+      <c r="B1048464"/>
+      <c r="C1048464"/>
+      <c r="D1048464"/>
+      <c r="E1048464"/>
+      <c r="F1048464"/>
+    </row>
+    <row r="1048465" spans="1:6">
+      <c r="A1048465"/>
+      <c r="B1048465"/>
+      <c r="C1048465"/>
+      <c r="D1048465"/>
+      <c r="E1048465"/>
+      <c r="F1048465"/>
+    </row>
+    <row r="1048466" spans="1:6">
+      <c r="A1048466"/>
+      <c r="B1048466"/>
+      <c r="C1048466"/>
+      <c r="D1048466"/>
+      <c r="E1048466"/>
+      <c r="F1048466"/>
+    </row>
+    <row r="1048467" spans="1:6">
+      <c r="A1048467"/>
+      <c r="B1048467"/>
+      <c r="C1048467"/>
+      <c r="D1048467"/>
+      <c r="E1048467"/>
+      <c r="F1048467"/>
+    </row>
+    <row r="1048468" spans="1:6">
+      <c r="A1048468"/>
+      <c r="B1048468"/>
+      <c r="C1048468"/>
+      <c r="D1048468"/>
+      <c r="E1048468"/>
+      <c r="F1048468"/>
+    </row>
+    <row r="1048469" spans="1:6">
+      <c r="A1048469"/>
+      <c r="B1048469"/>
+      <c r="C1048469"/>
+      <c r="D1048469"/>
+      <c r="E1048469"/>
+      <c r="F1048469"/>
+    </row>
+    <row r="1048470" spans="1:6">
+      <c r="A1048470"/>
+      <c r="B1048470"/>
+      <c r="C1048470"/>
+      <c r="D1048470"/>
+      <c r="E1048470"/>
+      <c r="F1048470"/>
+    </row>
+    <row r="1048471" spans="1:6">
+      <c r="A1048471"/>
+      <c r="B1048471"/>
+      <c r="C1048471"/>
+      <c r="D1048471"/>
+      <c r="E1048471"/>
+      <c r="F1048471"/>
+    </row>
+    <row r="1048472" spans="1:6">
+      <c r="A1048472"/>
+      <c r="B1048472"/>
+      <c r="C1048472"/>
+      <c r="D1048472"/>
+      <c r="E1048472"/>
+      <c r="F1048472"/>
+    </row>
+    <row r="1048473" spans="1:6">
+      <c r="A1048473"/>
+      <c r="B1048473"/>
+      <c r="C1048473"/>
+      <c r="D1048473"/>
+      <c r="E1048473"/>
+      <c r="F1048473"/>
+    </row>
+    <row r="1048474" spans="1:6">
+      <c r="A1048474"/>
+      <c r="B1048474"/>
+      <c r="C1048474"/>
+      <c r="D1048474"/>
+      <c r="E1048474"/>
+      <c r="F1048474"/>
+    </row>
+    <row r="1048475" spans="1:6">
+      <c r="A1048475"/>
+      <c r="B1048475"/>
+      <c r="C1048475"/>
+      <c r="D1048475"/>
+      <c r="E1048475"/>
+      <c r="F1048475"/>
+    </row>
+    <row r="1048476" spans="1:6">
+      <c r="A1048476"/>
+      <c r="B1048476"/>
+      <c r="C1048476"/>
+      <c r="D1048476"/>
+      <c r="E1048476"/>
+      <c r="F1048476"/>
+    </row>
+    <row r="1048477" spans="1:6">
+      <c r="A1048477"/>
+      <c r="B1048477"/>
+      <c r="C1048477"/>
+      <c r="D1048477"/>
+      <c r="E1048477"/>
+      <c r="F1048477"/>
+    </row>
+    <row r="1048478" spans="1:6">
+      <c r="A1048478"/>
+      <c r="B1048478"/>
+      <c r="C1048478"/>
+      <c r="D1048478"/>
+      <c r="E1048478"/>
+      <c r="F1048478"/>
+    </row>
+    <row r="1048479" spans="1:6">
+      <c r="A1048479"/>
+      <c r="B1048479"/>
+      <c r="C1048479"/>
+      <c r="D1048479"/>
+      <c r="E1048479"/>
+      <c r="F1048479"/>
+    </row>
+    <row r="1048480" spans="1:6">
+      <c r="A1048480"/>
+      <c r="B1048480"/>
+      <c r="C1048480"/>
+      <c r="D1048480"/>
+      <c r="E1048480"/>
+      <c r="F1048480"/>
+    </row>
+    <row r="1048481" spans="1:6">
+      <c r="A1048481"/>
+      <c r="B1048481"/>
+      <c r="C1048481"/>
+      <c r="D1048481"/>
+      <c r="E1048481"/>
+      <c r="F1048481"/>
+    </row>
+    <row r="1048482" spans="1:6">
+      <c r="A1048482"/>
+      <c r="B1048482"/>
+      <c r="C1048482"/>
+      <c r="D1048482"/>
+      <c r="E1048482"/>
+      <c r="F1048482"/>
+    </row>
+    <row r="1048483" spans="1:6">
+      <c r="A1048483"/>
+      <c r="B1048483"/>
+      <c r="C1048483"/>
+      <c r="D1048483"/>
+      <c r="E1048483"/>
+      <c r="F1048483"/>
+    </row>
+    <row r="1048484" spans="1:6">
+      <c r="A1048484"/>
+      <c r="B1048484"/>
+      <c r="C1048484"/>
+      <c r="D1048484"/>
+      <c r="E1048484"/>
+      <c r="F1048484"/>
+    </row>
+    <row r="1048485" spans="1:6">
+      <c r="A1048485"/>
+      <c r="B1048485"/>
+      <c r="C1048485"/>
+      <c r="D1048485"/>
+      <c r="E1048485"/>
+      <c r="F1048485"/>
+    </row>
+    <row r="1048486" spans="1:6">
+      <c r="A1048486"/>
+      <c r="B1048486"/>
+      <c r="C1048486"/>
+      <c r="D1048486"/>
+      <c r="E1048486"/>
+      <c r="F1048486"/>
+    </row>
+    <row r="1048487" spans="1:6">
+      <c r="A1048487"/>
+      <c r="B1048487"/>
+      <c r="C1048487"/>
+      <c r="D1048487"/>
+      <c r="E1048487"/>
+      <c r="F1048487"/>
+    </row>
+    <row r="1048488" spans="1:6">
+      <c r="A1048488"/>
+      <c r="B1048488"/>
+      <c r="C1048488"/>
+      <c r="D1048488"/>
+      <c r="E1048488"/>
+      <c r="F1048488"/>
+    </row>
+    <row r="1048489" spans="1:6">
+      <c r="A1048489"/>
+      <c r="B1048489"/>
+      <c r="C1048489"/>
+      <c r="D1048489"/>
+      <c r="E1048489"/>
+      <c r="F1048489"/>
+    </row>
+    <row r="1048490" spans="1:6">
+      <c r="A1048490"/>
+      <c r="B1048490"/>
+      <c r="C1048490"/>
+      <c r="D1048490"/>
+      <c r="E1048490"/>
+      <c r="F1048490"/>
+    </row>
+    <row r="1048491" spans="1:6">
+      <c r="A1048491"/>
+      <c r="B1048491"/>
+      <c r="C1048491"/>
+      <c r="D1048491"/>
+      <c r="E1048491"/>
+      <c r="F1048491"/>
+    </row>
+    <row r="1048492" spans="1:6">
+      <c r="A1048492"/>
+      <c r="B1048492"/>
+      <c r="C1048492"/>
+      <c r="D1048492"/>
+      <c r="E1048492"/>
+      <c r="F1048492"/>
+    </row>
+    <row r="1048493" spans="1:6">
+      <c r="A1048493"/>
+      <c r="B1048493"/>
+      <c r="C1048493"/>
+      <c r="D1048493"/>
+      <c r="E1048493"/>
+      <c r="F1048493"/>
+    </row>
+    <row r="1048494" spans="1:6">
+      <c r="A1048494"/>
+      <c r="B1048494"/>
+      <c r="C1048494"/>
+      <c r="D1048494"/>
+      <c r="E1048494"/>
+      <c r="F1048494"/>
+    </row>
+    <row r="1048495" spans="1:6">
+      <c r="A1048495"/>
+      <c r="B1048495"/>
+      <c r="C1048495"/>
+      <c r="D1048495"/>
+      <c r="E1048495"/>
+      <c r="F1048495"/>
+    </row>
+    <row r="1048496" spans="1:6">
+      <c r="A1048496"/>
+      <c r="B1048496"/>
+      <c r="C1048496"/>
+      <c r="D1048496"/>
+      <c r="E1048496"/>
+      <c r="F1048496"/>
+    </row>
+    <row r="1048497" spans="1:6">
+      <c r="A1048497"/>
+      <c r="B1048497"/>
+      <c r="C1048497"/>
+      <c r="D1048497"/>
+      <c r="E1048497"/>
+      <c r="F1048497"/>
+    </row>
+    <row r="1048498" spans="1:6">
+      <c r="A1048498"/>
+      <c r="B1048498"/>
+      <c r="C1048498"/>
+      <c r="D1048498"/>
+      <c r="E1048498"/>
+      <c r="F1048498"/>
+    </row>
+    <row r="1048499" spans="1:6">
+      <c r="A1048499"/>
+      <c r="B1048499"/>
+      <c r="C1048499"/>
+      <c r="D1048499"/>
+      <c r="E1048499"/>
+      <c r="F1048499"/>
+    </row>
+    <row r="1048500" spans="1:6">
+      <c r="A1048500"/>
+      <c r="B1048500"/>
+      <c r="C1048500"/>
+      <c r="D1048500"/>
+      <c r="E1048500"/>
+      <c r="F1048500"/>
+    </row>
+    <row r="1048501" spans="1:6">
+      <c r="A1048501"/>
+      <c r="B1048501"/>
+      <c r="C1048501"/>
+      <c r="D1048501"/>
+      <c r="E1048501"/>
+      <c r="F1048501"/>
+    </row>
+    <row r="1048502" spans="1:6">
+      <c r="A1048502"/>
+      <c r="B1048502"/>
+      <c r="C1048502"/>
+      <c r="D1048502"/>
+      <c r="E1048502"/>
+      <c r="F1048502"/>
+    </row>
+    <row r="1048503" spans="1:6">
+      <c r="A1048503"/>
+      <c r="B1048503"/>
+      <c r="C1048503"/>
+      <c r="D1048503"/>
+      <c r="E1048503"/>
+      <c r="F1048503"/>
+    </row>
+    <row r="1048504" spans="1:6">
+      <c r="A1048504"/>
+      <c r="B1048504"/>
+      <c r="C1048504"/>
+      <c r="D1048504"/>
+      <c r="E1048504"/>
+      <c r="F1048504"/>
+    </row>
+    <row r="1048505" spans="1:6">
+      <c r="A1048505"/>
+      <c r="B1048505"/>
+      <c r="C1048505"/>
+      <c r="D1048505"/>
+      <c r="E1048505"/>
+      <c r="F1048505"/>
+    </row>
+    <row r="1048506" spans="1:6">
+      <c r="A1048506"/>
+      <c r="B1048506"/>
+      <c r="C1048506"/>
+      <c r="D1048506"/>
+      <c r="E1048506"/>
+      <c r="F1048506"/>
+    </row>
+    <row r="1048507" spans="1:6">
+      <c r="A1048507"/>
+      <c r="B1048507"/>
+      <c r="C1048507"/>
+      <c r="D1048507"/>
+      <c r="E1048507"/>
+      <c r="F1048507"/>
+    </row>
+    <row r="1048508" spans="1:6">
+      <c r="A1048508"/>
+      <c r="B1048508"/>
+      <c r="C1048508"/>
+      <c r="D1048508"/>
+      <c r="E1048508"/>
+      <c r="F1048508"/>
+    </row>
+    <row r="1048509" spans="1:6">
+      <c r="A1048509"/>
+      <c r="B1048509"/>
+      <c r="C1048509"/>
+      <c r="D1048509"/>
+      <c r="E1048509"/>
+      <c r="F1048509"/>
+    </row>
+    <row r="1048510" spans="1:6">
+      <c r="A1048510"/>
+      <c r="B1048510"/>
+      <c r="C1048510"/>
+      <c r="D1048510"/>
+      <c r="E1048510"/>
+      <c r="F1048510"/>
+    </row>
+    <row r="1048511" spans="1:6">
+      <c r="A1048511"/>
+      <c r="B1048511"/>
+      <c r="C1048511"/>
+      <c r="D1048511"/>
+      <c r="E1048511"/>
+      <c r="F1048511"/>
+    </row>
+    <row r="1048512" spans="1:6">
+      <c r="A1048512"/>
+      <c r="B1048512"/>
+      <c r="C1048512"/>
+      <c r="D1048512"/>
+      <c r="E1048512"/>
+      <c r="F1048512"/>
+    </row>
+    <row r="1048513" spans="1:6">
+      <c r="A1048513"/>
+      <c r="B1048513"/>
+      <c r="C1048513"/>
+      <c r="D1048513"/>
+      <c r="E1048513"/>
+      <c r="F1048513"/>
+    </row>
+    <row r="1048514" spans="1:6">
+      <c r="A1048514"/>
+      <c r="B1048514"/>
+      <c r="C1048514"/>
+      <c r="D1048514"/>
+      <c r="E1048514"/>
+      <c r="F1048514"/>
+    </row>
+    <row r="1048515" spans="1:6">
+      <c r="A1048515"/>
+      <c r="B1048515"/>
+      <c r="C1048515"/>
+      <c r="D1048515"/>
+      <c r="E1048515"/>
+      <c r="F1048515"/>
+    </row>
+    <row r="1048516" spans="1:6">
+      <c r="A1048516"/>
+      <c r="B1048516"/>
+      <c r="C1048516"/>
+      <c r="D1048516"/>
+      <c r="E1048516"/>
+      <c r="F1048516"/>
+    </row>
+    <row r="1048517" spans="1:6">
+      <c r="A1048517"/>
+      <c r="B1048517"/>
+      <c r="C1048517"/>
+      <c r="D1048517"/>
+      <c r="E1048517"/>
+      <c r="F1048517"/>
+    </row>
+    <row r="1048518" spans="1:6">
+      <c r="A1048518"/>
+      <c r="B1048518"/>
+      <c r="C1048518"/>
+      <c r="D1048518"/>
+      <c r="E1048518"/>
+      <c r="F1048518"/>
+    </row>
+    <row r="1048519" spans="1:6">
+      <c r="A1048519"/>
+      <c r="B1048519"/>
+      <c r="C1048519"/>
+      <c r="D1048519"/>
+      <c r="E1048519"/>
+      <c r="F1048519"/>
+    </row>
+    <row r="1048520" spans="1:6">
+      <c r="A1048520"/>
+      <c r="B1048520"/>
+      <c r="C1048520"/>
+      <c r="D1048520"/>
+      <c r="E1048520"/>
+      <c r="F1048520"/>
+    </row>
+    <row r="1048521" spans="1:6">
+      <c r="A1048521"/>
+      <c r="B1048521"/>
+      <c r="C1048521"/>
+      <c r="D1048521"/>
+      <c r="E1048521"/>
+      <c r="F1048521"/>
+    </row>
+    <row r="1048522" spans="1:6">
+      <c r="A1048522"/>
+      <c r="B1048522"/>
+      <c r="C1048522"/>
+      <c r="D1048522"/>
+      <c r="E1048522"/>
+      <c r="F1048522"/>
+    </row>
+    <row r="1048523" spans="1:6">
+      <c r="A1048523"/>
+      <c r="B1048523"/>
+      <c r="C1048523"/>
+      <c r="D1048523"/>
+      <c r="E1048523"/>
+      <c r="F1048523"/>
+    </row>
+    <row r="1048524" spans="1:6">
+      <c r="A1048524"/>
+      <c r="B1048524"/>
+      <c r="C1048524"/>
+      <c r="D1048524"/>
+      <c r="E1048524"/>
+      <c r="F1048524"/>
+    </row>
+    <row r="1048525" spans="1:6">
+      <c r="A1048525"/>
+      <c r="B1048525"/>
+      <c r="C1048525"/>
+      <c r="D1048525"/>
+      <c r="E1048525"/>
+      <c r="F1048525"/>
+    </row>
+    <row r="1048526" spans="1:6">
+      <c r="A1048526"/>
+      <c r="B1048526"/>
+      <c r="C1048526"/>
+      <c r="D1048526"/>
+      <c r="E1048526"/>
+      <c r="F1048526"/>
+    </row>
+    <row r="1048527" spans="1:6">
+      <c r="A1048527"/>
+      <c r="B1048527"/>
+      <c r="C1048527"/>
+      <c r="D1048527"/>
+      <c r="E1048527"/>
+      <c r="F1048527"/>
+    </row>
+    <row r="1048528" spans="1:6">
+      <c r="A1048528"/>
+      <c r="B1048528"/>
+      <c r="C1048528"/>
+      <c r="D1048528"/>
+      <c r="E1048528"/>
+      <c r="F1048528"/>
+    </row>
+    <row r="1048529" spans="1:6">
+      <c r="A1048529"/>
+      <c r="B1048529"/>
+      <c r="C1048529"/>
+      <c r="D1048529"/>
+      <c r="E1048529"/>
+      <c r="F1048529"/>
+    </row>
+    <row r="1048530" spans="1:6">
+      <c r="A1048530"/>
+      <c r="B1048530"/>
+      <c r="C1048530"/>
+      <c r="D1048530"/>
+      <c r="E1048530"/>
+      <c r="F1048530"/>
+    </row>
+    <row r="1048531" spans="1:6">
+      <c r="A1048531"/>
+      <c r="B1048531"/>
+      <c r="C1048531"/>
+      <c r="D1048531"/>
+      <c r="E1048531"/>
+      <c r="F1048531"/>
+    </row>
+    <row r="1048532" spans="1:6">
+      <c r="A1048532"/>
+      <c r="B1048532"/>
+      <c r="C1048532"/>
+      <c r="D1048532"/>
+      <c r="E1048532"/>
+      <c r="F1048532"/>
+    </row>
+    <row r="1048533" spans="1:6">
+      <c r="A1048533"/>
+      <c r="B1048533"/>
+      <c r="C1048533"/>
+      <c r="D1048533"/>
+      <c r="E1048533"/>
+      <c r="F1048533"/>
+    </row>
+    <row r="1048534" spans="1:6">
+      <c r="A1048534"/>
+      <c r="B1048534"/>
+      <c r="C1048534"/>
+      <c r="D1048534"/>
+      <c r="E1048534"/>
+      <c r="F1048534"/>
+    </row>
+    <row r="1048535" spans="1:6">
+      <c r="A1048535"/>
+      <c r="B1048535"/>
+      <c r="C1048535"/>
+      <c r="D1048535"/>
+      <c r="E1048535"/>
+      <c r="F1048535"/>
+    </row>
+    <row r="1048536" spans="1:6">
+      <c r="A1048536"/>
+      <c r="B1048536"/>
+      <c r="C1048536"/>
+      <c r="D1048536"/>
+      <c r="E1048536"/>
+      <c r="F1048536"/>
+    </row>
+    <row r="1048537" spans="1:6">
+      <c r="A1048537"/>
+      <c r="B1048537"/>
+      <c r="C1048537"/>
+      <c r="D1048537"/>
+      <c r="E1048537"/>
+      <c r="F1048537"/>
+    </row>
+    <row r="1048538" spans="1:6">
+      <c r="A1048538"/>
+      <c r="B1048538"/>
+      <c r="C1048538"/>
+      <c r="D1048538"/>
+      <c r="E1048538"/>
+      <c r="F1048538"/>
+    </row>
+    <row r="1048539" spans="1:6">
+      <c r="A1048539"/>
+      <c r="B1048539"/>
+      <c r="C1048539"/>
+      <c r="D1048539"/>
+      <c r="E1048539"/>
+      <c r="F1048539"/>
+    </row>
+    <row r="1048540" spans="1:6">
+      <c r="A1048540"/>
+      <c r="B1048540"/>
+      <c r="C1048540"/>
+      <c r="D1048540"/>
+      <c r="E1048540"/>
+      <c r="F1048540"/>
+    </row>
+    <row r="1048541" spans="1:6">
+      <c r="A1048541"/>
+      <c r="B1048541"/>
+      <c r="C1048541"/>
+      <c r="D1048541"/>
+      <c r="E1048541"/>
+      <c r="F1048541"/>
+    </row>
+    <row r="1048542" spans="1:6">
+      <c r="A1048542"/>
+      <c r="B1048542"/>
+      <c r="C1048542"/>
+      <c r="D1048542"/>
+      <c r="E1048542"/>
+      <c r="F1048542"/>
+    </row>
+    <row r="1048543" spans="1:6">
+      <c r="A1048543"/>
+      <c r="B1048543"/>
+      <c r="C1048543"/>
+      <c r="D1048543"/>
+      <c r="E1048543"/>
+      <c r="F1048543"/>
+    </row>
+    <row r="1048544" spans="1:6">
+      <c r="A1048544"/>
+      <c r="B1048544"/>
+      <c r="C1048544"/>
+      <c r="D1048544"/>
+      <c r="E1048544"/>
+      <c r="F1048544"/>
+    </row>
+    <row r="1048545" spans="1:6">
+      <c r="A1048545"/>
+      <c r="B1048545"/>
+      <c r="C1048545"/>
+      <c r="D1048545"/>
+      <c r="E1048545"/>
+      <c r="F1048545"/>
+    </row>
+    <row r="1048546" spans="1:6">
+      <c r="A1048546"/>
+      <c r="B1048546"/>
+      <c r="C1048546"/>
+      <c r="D1048546"/>
+      <c r="E1048546"/>
+      <c r="F1048546"/>
+    </row>
+    <row r="1048547" spans="1:6">
+      <c r="A1048547"/>
+      <c r="B1048547"/>
+      <c r="C1048547"/>
+      <c r="D1048547"/>
+      <c r="E1048547"/>
+      <c r="F1048547"/>
+    </row>
+    <row r="1048548" spans="1:6">
+      <c r="A1048548"/>
+      <c r="B1048548"/>
+      <c r="C1048548"/>
+      <c r="D1048548"/>
+      <c r="E1048548"/>
+      <c r="F1048548"/>
+    </row>
+    <row r="1048549" spans="1:6">
+      <c r="A1048549"/>
+      <c r="B1048549"/>
+      <c r="C1048549"/>
+      <c r="D1048549"/>
+      <c r="E1048549"/>
+      <c r="F1048549"/>
+    </row>
+    <row r="1048550" spans="1:6">
+      <c r="A1048550"/>
+      <c r="B1048550"/>
+      <c r="C1048550"/>
+      <c r="D1048550"/>
+      <c r="E1048550"/>
+      <c r="F1048550"/>
+    </row>
+    <row r="1048551" spans="1:6">
+      <c r="A1048551"/>
+      <c r="B1048551"/>
+      <c r="C1048551"/>
+      <c r="D1048551"/>
+      <c r="E1048551"/>
+      <c r="F1048551"/>
+    </row>
+    <row r="1048552" spans="1:6">
+      <c r="A1048552"/>
+      <c r="B1048552"/>
+      <c r="C1048552"/>
+      <c r="D1048552"/>
+      <c r="E1048552"/>
+      <c r="F1048552"/>
+    </row>
+    <row r="1048553" spans="1:6">
+      <c r="A1048553"/>
+      <c r="B1048553"/>
+      <c r="C1048553"/>
+      <c r="D1048553"/>
+      <c r="E1048553"/>
+      <c r="F1048553"/>
+    </row>
+    <row r="1048554" spans="1:6">
+      <c r="A1048554"/>
+      <c r="B1048554"/>
+      <c r="C1048554"/>
+      <c r="D1048554"/>
+      <c r="E1048554"/>
+      <c r="F1048554"/>
+    </row>
+    <row r="1048555" spans="1:6">
+      <c r="A1048555"/>
+      <c r="B1048555"/>
+      <c r="C1048555"/>
+      <c r="D1048555"/>
+      <c r="E1048555"/>
+      <c r="F1048555"/>
+    </row>
+    <row r="1048556" spans="1:6">
+      <c r="A1048556"/>
+      <c r="B1048556"/>
+      <c r="C1048556"/>
+      <c r="D1048556"/>
+      <c r="E1048556"/>
+      <c r="F1048556"/>
+    </row>
+    <row r="1048557" spans="1:6">
+      <c r="A1048557"/>
+      <c r="B1048557"/>
+      <c r="C1048557"/>
+      <c r="D1048557"/>
+      <c r="E1048557"/>
+      <c r="F1048557"/>
+    </row>
+    <row r="1048558" spans="1:6">
+      <c r="A1048558"/>
+      <c r="B1048558"/>
+      <c r="C1048558"/>
+      <c r="D1048558"/>
+      <c r="E1048558"/>
+      <c r="F1048558"/>
+    </row>
+    <row r="1048559" spans="1:6">
+      <c r="A1048559"/>
+      <c r="B1048559"/>
+      <c r="C1048559"/>
+      <c r="D1048559"/>
+      <c r="E1048559"/>
+      <c r="F1048559"/>
+    </row>
+    <row r="1048560" spans="1:6">
+      <c r="A1048560"/>
+      <c r="B1048560"/>
+      <c r="C1048560"/>
+      <c r="D1048560"/>
+      <c r="E1048560"/>
+      <c r="F1048560"/>
+    </row>
+    <row r="1048561" spans="1:6">
+      <c r="A1048561"/>
+      <c r="B1048561"/>
+      <c r="C1048561"/>
+      <c r="D1048561"/>
+      <c r="E1048561"/>
+      <c r="F1048561"/>
+    </row>
+    <row r="1048562" spans="1:6">
+      <c r="A1048562"/>
+      <c r="B1048562"/>
+      <c r="C1048562"/>
+      <c r="D1048562"/>
+      <c r="E1048562"/>
+      <c r="F1048562"/>
+    </row>
+    <row r="1048563" spans="1:6">
+      <c r="A1048563"/>
+      <c r="B1048563"/>
+      <c r="C1048563"/>
+      <c r="D1048563"/>
+      <c r="E1048563"/>
+      <c r="F1048563"/>
+    </row>
+    <row r="1048564" spans="1:6">
+      <c r="A1048564"/>
+      <c r="B1048564"/>
+      <c r="C1048564"/>
+      <c r="D1048564"/>
+      <c r="E1048564"/>
+      <c r="F1048564"/>
+    </row>
+    <row r="1048565" spans="1:6">
+      <c r="A1048565"/>
+      <c r="B1048565"/>
+      <c r="C1048565"/>
+      <c r="D1048565"/>
+      <c r="E1048565"/>
+      <c r="F1048565"/>
+    </row>
+    <row r="1048566" spans="1:6">
+      <c r="A1048566"/>
+      <c r="B1048566"/>
+      <c r="C1048566"/>
+      <c r="D1048566"/>
+      <c r="E1048566"/>
+      <c r="F1048566"/>
+    </row>
+    <row r="1048567" spans="1:6">
+      <c r="A1048567"/>
+      <c r="B1048567"/>
+      <c r="C1048567"/>
+      <c r="D1048567"/>
+      <c r="E1048567"/>
+      <c r="F1048567"/>
+    </row>
+    <row r="1048568" spans="1:6">
+      <c r="A1048568"/>
+      <c r="B1048568"/>
+      <c r="C1048568"/>
+      <c r="D1048568"/>
+      <c r="E1048568"/>
+      <c r="F1048568"/>
+    </row>
+    <row r="1048569" spans="1:6">
+      <c r="A1048569"/>
+      <c r="B1048569"/>
+      <c r="C1048569"/>
+      <c r="D1048569"/>
+      <c r="E1048569"/>
+      <c r="F1048569"/>
+    </row>
+    <row r="1048570" spans="1:6">
+      <c r="A1048570"/>
+      <c r="B1048570"/>
+      <c r="C1048570"/>
+      <c r="D1048570"/>
+      <c r="E1048570"/>
+      <c r="F1048570"/>
+    </row>
+    <row r="1048571" spans="1:6">
+      <c r="A1048571"/>
+      <c r="B1048571"/>
+      <c r="C1048571"/>
+      <c r="D1048571"/>
+      <c r="E1048571"/>
+      <c r="F1048571"/>
+    </row>
+    <row r="1048572" spans="1:6">
+      <c r="A1048572"/>
+      <c r="B1048572"/>
+      <c r="C1048572"/>
+      <c r="D1048572"/>
+      <c r="E1048572"/>
+      <c r="F1048572"/>
+    </row>
+    <row r="1048573" spans="1:6">
+      <c r="A1048573"/>
+      <c r="B1048573"/>
+      <c r="C1048573"/>
+      <c r="D1048573"/>
+      <c r="E1048573"/>
+      <c r="F1048573"/>
+    </row>
+    <row r="1048574" spans="1:6">
+      <c r="A1048574"/>
+      <c r="B1048574"/>
+      <c r="C1048574"/>
+      <c r="D1048574"/>
+      <c r="E1048574"/>
+      <c r="F1048574"/>
+    </row>
+    <row r="1048575" spans="1:6">
+      <c r="A1048575"/>
+      <c r="B1048575"/>
+      <c r="C1048575"/>
+      <c r="D1048575"/>
+      <c r="E1048575"/>
+      <c r="F1048575"/>
+    </row>
+    <row r="1048576" spans="1:6">
+      <c r="A1048576"/>
+      <c r="B1048576"/>
+      <c r="C1048576"/>
+      <c r="D1048576"/>
+      <c r="E1048576"/>
+      <c r="F1048576"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
   <pageMargins left="1" right="1" top="1.6666666666666667" bottom="1.6666666666666667" header="1" footer="1"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" fitToHeight="0" fitToWidth="0" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0"/>
-  <headerFooter>
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" cellComments="asDisplayed"/>
 </worksheet>
 </file>